--- a/CumulativeTestsByTypeByCounty/2021-01-26.xlsx
+++ b/CumulativeTestsByTypeByCounty/2021-01-26.xlsx
@@ -1071,16 +1071,16 @@
         <v>5</v>
       </c>
       <c r="B2" s="4">
-        <v>44149</v>
+        <v>44207</v>
       </c>
       <c r="C2" s="4">
-        <v>1355</v>
+        <v>1361</v>
       </c>
       <c r="D2" s="4">
-        <v>4255</v>
+        <v>4276</v>
       </c>
       <c r="E2" s="4">
-        <v>49759</v>
+        <v>49844</v>
       </c>
     </row>
     <row r="3" ht="14" customHeight="1">
@@ -1088,16 +1088,16 @@
         <v>6</v>
       </c>
       <c r="B3" s="4">
-        <v>3663</v>
+        <v>3675</v>
       </c>
       <c r="C3" s="4">
         <v>163</v>
       </c>
       <c r="D3" s="4">
-        <v>1644</v>
+        <v>1645</v>
       </c>
       <c r="E3" s="4">
-        <v>5470</v>
+        <v>5483</v>
       </c>
     </row>
     <row r="4" ht="14" customHeight="1">
@@ -1105,16 +1105,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="4">
-        <v>43340</v>
+        <v>43565</v>
       </c>
       <c r="C4" s="4">
-        <v>1322</v>
+        <v>1331</v>
       </c>
       <c r="D4" s="4">
-        <v>11733</v>
+        <v>11741</v>
       </c>
       <c r="E4" s="4">
-        <v>56395</v>
+        <v>56637</v>
       </c>
     </row>
     <row r="5" ht="14" customHeight="1">
@@ -1122,16 +1122,16 @@
         <v>8</v>
       </c>
       <c r="B5" s="4">
-        <v>5495</v>
+        <v>5532</v>
       </c>
       <c r="C5" s="4">
-        <v>1854</v>
+        <v>1863</v>
       </c>
       <c r="D5" s="4">
-        <v>3524</v>
+        <v>3532</v>
       </c>
       <c r="E5" s="4">
-        <v>10873</v>
+        <v>10927</v>
       </c>
     </row>
     <row r="6" ht="14" customHeight="1">
@@ -1139,16 +1139,16 @@
         <v>9</v>
       </c>
       <c r="B6" s="4">
-        <v>2566</v>
+        <v>2573</v>
       </c>
       <c r="C6" s="4">
         <v>96</v>
       </c>
       <c r="D6" s="4">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E6" s="4">
-        <v>2974</v>
+        <v>2983</v>
       </c>
     </row>
     <row r="7" ht="14" customHeight="1">
@@ -1156,16 +1156,16 @@
         <v>10</v>
       </c>
       <c r="B7" s="4">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C7" s="4">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D7" s="4">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E7" s="4">
-        <v>721</v>
+        <v>728</v>
       </c>
     </row>
     <row r="8" ht="14" customHeight="1">
@@ -1173,16 +1173,16 @@
         <v>11</v>
       </c>
       <c r="B8" s="4">
-        <v>31944</v>
+        <v>32120</v>
       </c>
       <c r="C8" s="4">
-        <v>892</v>
+        <v>898</v>
       </c>
       <c r="D8" s="4">
-        <v>2788</v>
+        <v>2818</v>
       </c>
       <c r="E8" s="4">
-        <v>35624</v>
+        <v>35836</v>
       </c>
     </row>
     <row r="9" ht="14" customHeight="1">
@@ -1190,16 +1190,16 @@
         <v>12</v>
       </c>
       <c r="B9" s="4">
-        <v>13681</v>
+        <v>13760</v>
       </c>
       <c r="C9" s="4">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D9" s="4">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="E9" s="4">
-        <v>14456</v>
+        <v>14548</v>
       </c>
     </row>
     <row r="10" ht="14" customHeight="1">
@@ -1207,16 +1207,16 @@
         <v>13</v>
       </c>
       <c r="B10" s="4">
-        <v>1649</v>
+        <v>1652</v>
       </c>
       <c r="C10" s="4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" s="4">
         <v>319</v>
       </c>
       <c r="E10" s="4">
-        <v>1981</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="11" ht="14" customHeight="1">
@@ -1224,16 +1224,16 @@
         <v>14</v>
       </c>
       <c r="B11" s="4">
-        <v>5767</v>
+        <v>5825</v>
       </c>
       <c r="C11" s="4">
         <v>357</v>
       </c>
       <c r="D11" s="4">
-        <v>2039</v>
+        <v>2059</v>
       </c>
       <c r="E11" s="4">
-        <v>8163</v>
+        <v>8241</v>
       </c>
     </row>
     <row r="12" ht="14" customHeight="1">
@@ -1241,16 +1241,16 @@
         <v>15</v>
       </c>
       <c r="B12" s="4">
-        <v>38385</v>
+        <v>38692</v>
       </c>
       <c r="C12" s="4">
-        <v>876</v>
+        <v>880</v>
       </c>
       <c r="D12" s="4">
-        <v>10060</v>
+        <v>10145</v>
       </c>
       <c r="E12" s="4">
-        <v>49321</v>
+        <v>49717</v>
       </c>
     </row>
     <row r="13" ht="14" customHeight="1">
@@ -1258,7 +1258,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="4">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="C13" s="4">
         <v>7</v>
@@ -1267,7 +1267,7 @@
         <v>570</v>
       </c>
       <c r="E13" s="4">
-        <v>1662</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="14" ht="14" customHeight="1">
@@ -1275,16 +1275,16 @@
         <v>17</v>
       </c>
       <c r="B14" s="4">
-        <v>25627</v>
+        <v>25696</v>
       </c>
       <c r="C14" s="4">
-        <v>4498</v>
+        <v>4519</v>
       </c>
       <c r="D14" s="4">
-        <v>4354</v>
+        <v>4383</v>
       </c>
       <c r="E14" s="4">
-        <v>34479</v>
+        <v>34598</v>
       </c>
     </row>
     <row r="15" ht="14" customHeight="1">
@@ -1292,16 +1292,16 @@
         <v>18</v>
       </c>
       <c r="B15" s="4">
-        <v>189881</v>
+        <v>191204</v>
       </c>
       <c r="C15" s="4">
-        <v>11958</v>
+        <v>12016</v>
       </c>
       <c r="D15" s="4">
-        <v>6095</v>
+        <v>6245</v>
       </c>
       <c r="E15" s="4">
-        <v>207934</v>
+        <v>209465</v>
       </c>
     </row>
     <row r="16" ht="14" customHeight="1">
@@ -1309,16 +1309,16 @@
         <v>19</v>
       </c>
       <c r="B16" s="4">
-        <v>1220398</v>
+        <v>1229356</v>
       </c>
       <c r="C16" s="4">
-        <v>38510</v>
+        <v>38618</v>
       </c>
       <c r="D16" s="4">
-        <v>111862</v>
+        <v>113470</v>
       </c>
       <c r="E16" s="4">
-        <v>1370770</v>
+        <v>1381444</v>
       </c>
     </row>
     <row r="17" ht="14" customHeight="1">
@@ -1326,16 +1326,16 @@
         <v>20</v>
       </c>
       <c r="B17" s="4">
-        <v>4364</v>
+        <v>4397</v>
       </c>
       <c r="C17" s="4">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D17" s="4">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="E17" s="4">
-        <v>4882</v>
+        <v>4937</v>
       </c>
     </row>
     <row r="18" ht="14" customHeight="1">
@@ -1349,10 +1349,10 @@
         <v>10</v>
       </c>
       <c r="D18" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E18" s="4">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" ht="14" customHeight="1">
@@ -1360,16 +1360,16 @@
         <v>22</v>
       </c>
       <c r="B19" s="4">
-        <v>7426</v>
+        <v>7460</v>
       </c>
       <c r="C19" s="4">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D19" s="4">
-        <v>3488</v>
+        <v>3491</v>
       </c>
       <c r="E19" s="4">
-        <v>11355</v>
+        <v>11393</v>
       </c>
     </row>
     <row r="20" ht="14" customHeight="1">
@@ -1377,16 +1377,16 @@
         <v>23</v>
       </c>
       <c r="B20" s="4">
-        <v>49876</v>
+        <v>50100</v>
       </c>
       <c r="C20" s="4">
-        <v>9474</v>
+        <v>9478</v>
       </c>
       <c r="D20" s="4">
-        <v>4182</v>
+        <v>4288</v>
       </c>
       <c r="E20" s="4">
-        <v>63532</v>
+        <v>63866</v>
       </c>
     </row>
     <row r="21" ht="14" customHeight="1">
@@ -1394,16 +1394,16 @@
         <v>24</v>
       </c>
       <c r="B21" s="4">
-        <v>238752</v>
+        <v>240107</v>
       </c>
       <c r="C21" s="4">
-        <v>7485</v>
+        <v>7498</v>
       </c>
       <c r="D21" s="4">
-        <v>16148</v>
+        <v>16458</v>
       </c>
       <c r="E21" s="4">
-        <v>262385</v>
+        <v>264063</v>
       </c>
     </row>
     <row r="22" ht="14" customHeight="1">
@@ -1411,16 +1411,16 @@
         <v>25</v>
       </c>
       <c r="B22" s="4">
-        <v>181949</v>
+        <v>182665</v>
       </c>
       <c r="C22" s="4">
-        <v>4920</v>
+        <v>4938</v>
       </c>
       <c r="D22" s="4">
-        <v>8434</v>
+        <v>8583</v>
       </c>
       <c r="E22" s="4">
-        <v>195303</v>
+        <v>196186</v>
       </c>
     </row>
     <row r="23" ht="14" customHeight="1">
@@ -1428,16 +1428,16 @@
         <v>26</v>
       </c>
       <c r="B23" s="4">
-        <v>8004</v>
+        <v>8006</v>
       </c>
       <c r="C23" s="4">
         <v>95</v>
       </c>
       <c r="D23" s="4">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="E23" s="4">
-        <v>8238</v>
+        <v>8260</v>
       </c>
     </row>
     <row r="24" ht="14" customHeight="1">
@@ -1445,16 +1445,16 @@
         <v>27</v>
       </c>
       <c r="B24" s="4">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C24" s="4">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D24" s="4">
         <v>43</v>
       </c>
       <c r="E24" s="4">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="25" ht="14" customHeight="1">
@@ -1462,16 +1462,16 @@
         <v>28</v>
       </c>
       <c r="B25" s="4">
-        <v>10758</v>
+        <v>11215</v>
       </c>
       <c r="C25" s="4">
-        <v>1142</v>
+        <v>1145</v>
       </c>
       <c r="D25" s="4">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="E25" s="4">
-        <v>12747</v>
+        <v>13209</v>
       </c>
     </row>
     <row r="26" ht="14" customHeight="1">
@@ -1479,16 +1479,16 @@
         <v>29</v>
       </c>
       <c r="B26" s="4">
-        <v>13558</v>
+        <v>13611</v>
       </c>
       <c r="C26" s="4">
-        <v>656</v>
+        <v>663</v>
       </c>
       <c r="D26" s="4">
-        <v>13134</v>
+        <v>13193</v>
       </c>
       <c r="E26" s="4">
-        <v>27348</v>
+        <v>27467</v>
       </c>
     </row>
     <row r="27" ht="14" customHeight="1">
@@ -1496,16 +1496,16 @@
         <v>30</v>
       </c>
       <c r="B27" s="4">
-        <v>10681</v>
+        <v>10752</v>
       </c>
       <c r="C27" s="4">
         <v>210</v>
       </c>
       <c r="D27" s="4">
-        <v>667</v>
+        <v>679</v>
       </c>
       <c r="E27" s="4">
-        <v>11558</v>
+        <v>11641</v>
       </c>
     </row>
     <row r="28" ht="14" customHeight="1">
@@ -1513,16 +1513,16 @@
         <v>31</v>
       </c>
       <c r="B28" s="4">
-        <v>25070</v>
+        <v>25330</v>
       </c>
       <c r="C28" s="4">
-        <v>938</v>
+        <v>950</v>
       </c>
       <c r="D28" s="4">
-        <v>1543</v>
+        <v>1637</v>
       </c>
       <c r="E28" s="4">
-        <v>27551</v>
+        <v>27917</v>
       </c>
     </row>
     <row r="29" ht="14" customHeight="1">
@@ -1530,16 +1530,16 @@
         <v>32</v>
       </c>
       <c r="B29" s="4">
-        <v>24334</v>
+        <v>24648</v>
       </c>
       <c r="C29" s="4">
-        <v>1379</v>
+        <v>1386</v>
       </c>
       <c r="D29" s="4">
-        <v>3187</v>
+        <v>3237</v>
       </c>
       <c r="E29" s="4">
-        <v>28900</v>
+        <v>29271</v>
       </c>
     </row>
     <row r="30" ht="14" customHeight="1">
@@ -1547,16 +1547,16 @@
         <v>33</v>
       </c>
       <c r="B30" s="4">
-        <v>10871</v>
+        <v>10914</v>
       </c>
       <c r="C30" s="4">
         <v>239</v>
       </c>
       <c r="D30" s="4">
-        <v>2304</v>
+        <v>2327</v>
       </c>
       <c r="E30" s="4">
-        <v>13414</v>
+        <v>13480</v>
       </c>
     </row>
     <row r="31" ht="14" customHeight="1">
@@ -1564,16 +1564,16 @@
         <v>34</v>
       </c>
       <c r="B31" s="4">
-        <v>4026</v>
+        <v>4036</v>
       </c>
       <c r="C31" s="4">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D31" s="4">
-        <v>3228</v>
+        <v>3254</v>
       </c>
       <c r="E31" s="4">
-        <v>7452</v>
+        <v>7491</v>
       </c>
     </row>
     <row r="32" ht="14" customHeight="1">
@@ -1581,16 +1581,16 @@
         <v>35</v>
       </c>
       <c r="B32" s="4">
-        <v>193589</v>
+        <v>194866</v>
       </c>
       <c r="C32" s="4">
-        <v>6697</v>
+        <v>6730</v>
       </c>
       <c r="D32" s="4">
-        <v>21510</v>
+        <v>23005</v>
       </c>
       <c r="E32" s="4">
-        <v>221796</v>
+        <v>224601</v>
       </c>
     </row>
     <row r="33" ht="14" customHeight="1">
@@ -1598,16 +1598,16 @@
         <v>36</v>
       </c>
       <c r="B33" s="4">
-        <v>4652</v>
+        <v>4686</v>
       </c>
       <c r="C33" s="4">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D33" s="4">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="E33" s="4">
-        <v>5924</v>
+        <v>5961</v>
       </c>
     </row>
     <row r="34" ht="14" customHeight="1">
@@ -1615,16 +1615,16 @@
         <v>37</v>
       </c>
       <c r="B34" s="4">
-        <v>1383</v>
+        <v>1386</v>
       </c>
       <c r="C34" s="4">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D34" s="4">
         <v>142</v>
       </c>
       <c r="E34" s="4">
-        <v>2033</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="35" ht="14" customHeight="1">
@@ -1632,16 +1632,16 @@
         <v>38</v>
       </c>
       <c r="B35" s="4">
-        <v>10155</v>
+        <v>10190</v>
       </c>
       <c r="C35" s="4">
-        <v>2995</v>
+        <v>3000</v>
       </c>
       <c r="D35" s="4">
-        <v>1877</v>
+        <v>1896</v>
       </c>
       <c r="E35" s="4">
-        <v>15027</v>
+        <v>15086</v>
       </c>
     </row>
     <row r="36" ht="14" customHeight="1">
@@ -1649,16 +1649,16 @@
         <v>39</v>
       </c>
       <c r="B36" s="4">
-        <v>3285</v>
+        <v>3298</v>
       </c>
       <c r="C36" s="4">
         <v>34</v>
       </c>
       <c r="D36" s="4">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="E36" s="4">
-        <v>4706</v>
+        <v>4720</v>
       </c>
     </row>
     <row r="37" ht="14" customHeight="1">
@@ -1666,16 +1666,16 @@
         <v>40</v>
       </c>
       <c r="B37" s="4">
-        <v>6415</v>
+        <v>6444</v>
       </c>
       <c r="C37" s="4">
         <v>501</v>
       </c>
       <c r="D37" s="4">
-        <v>624</v>
+        <v>675</v>
       </c>
       <c r="E37" s="4">
-        <v>7540</v>
+        <v>7620</v>
       </c>
     </row>
     <row r="38" ht="14" customHeight="1">
@@ -1683,16 +1683,16 @@
         <v>41</v>
       </c>
       <c r="B38" s="4">
-        <v>18451</v>
+        <v>18504</v>
       </c>
       <c r="C38" s="4">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="D38" s="4">
-        <v>4500</v>
+        <v>4513</v>
       </c>
       <c r="E38" s="4">
-        <v>23632</v>
+        <v>23701</v>
       </c>
     </row>
     <row r="39" ht="14" customHeight="1">
@@ -1700,7 +1700,7 @@
         <v>42</v>
       </c>
       <c r="B39" s="4">
-        <v>2376</v>
+        <v>2383</v>
       </c>
       <c r="C39" s="4">
         <v>123</v>
@@ -1709,7 +1709,7 @@
         <v>3429</v>
       </c>
       <c r="E39" s="4">
-        <v>5928</v>
+        <v>5935</v>
       </c>
     </row>
     <row r="40" ht="14" customHeight="1">
@@ -1717,16 +1717,16 @@
         <v>43</v>
       </c>
       <c r="B40" s="4">
-        <v>3493</v>
+        <v>3505</v>
       </c>
       <c r="C40" s="4">
         <v>98</v>
       </c>
       <c r="D40" s="4">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="E40" s="4">
-        <v>4326</v>
+        <v>4339</v>
       </c>
     </row>
     <row r="41" ht="14" customHeight="1">
@@ -1734,7 +1734,7 @@
         <v>44</v>
       </c>
       <c r="B41" s="4">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C41" s="4">
         <v>13</v>
@@ -1743,7 +1743,7 @@
         <v>209</v>
       </c>
       <c r="E41" s="4">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="42" ht="14" customHeight="1">
@@ -1751,16 +1751,16 @@
         <v>45</v>
       </c>
       <c r="B42" s="4">
-        <v>1321</v>
+        <v>1323</v>
       </c>
       <c r="C42" s="4">
         <v>18</v>
       </c>
       <c r="D42" s="4">
-        <v>1501</v>
+        <v>1506</v>
       </c>
       <c r="E42" s="4">
-        <v>2840</v>
+        <v>2847</v>
       </c>
     </row>
     <row r="43" ht="14" customHeight="1">
@@ -1768,16 +1768,16 @@
         <v>46</v>
       </c>
       <c r="B43" s="4">
-        <v>2567</v>
+        <v>2574</v>
       </c>
       <c r="C43" s="4">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D43" s="4">
-        <v>2044</v>
+        <v>2048</v>
       </c>
       <c r="E43" s="4">
-        <v>4678</v>
+        <v>4691</v>
       </c>
     </row>
     <row r="44" ht="14" customHeight="1">
@@ -1785,16 +1785,16 @@
         <v>47</v>
       </c>
       <c r="B44" s="4">
-        <v>681022</v>
+        <v>685443</v>
       </c>
       <c r="C44" s="4">
-        <v>70526</v>
+        <v>70840</v>
       </c>
       <c r="D44" s="4">
-        <v>48083</v>
+        <v>51682</v>
       </c>
       <c r="E44" s="4">
-        <v>799631</v>
+        <v>807965</v>
       </c>
     </row>
     <row r="45" ht="14" customHeight="1">
@@ -1802,7 +1802,7 @@
         <v>48</v>
       </c>
       <c r="B45" s="4">
-        <v>891</v>
+        <v>899</v>
       </c>
       <c r="C45" s="4">
         <v>13</v>
@@ -1811,7 +1811,7 @@
         <v>904</v>
       </c>
       <c r="E45" s="4">
-        <v>1808</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="46" ht="14" customHeight="1">
@@ -1819,16 +1819,16 @@
         <v>49</v>
       </c>
       <c r="B46" s="4">
-        <v>9533</v>
+        <v>9609</v>
       </c>
       <c r="C46" s="4">
         <v>237</v>
       </c>
       <c r="D46" s="4">
-        <v>2348</v>
+        <v>2356</v>
       </c>
       <c r="E46" s="4">
-        <v>12118</v>
+        <v>12202</v>
       </c>
     </row>
     <row r="47" ht="14" customHeight="1">
@@ -1836,16 +1836,16 @@
         <v>50</v>
       </c>
       <c r="B47" s="4">
-        <v>71368</v>
+        <v>71931</v>
       </c>
       <c r="C47" s="4">
-        <v>5959</v>
+        <v>5974</v>
       </c>
       <c r="D47" s="4">
-        <v>10543</v>
+        <v>10889</v>
       </c>
       <c r="E47" s="4">
-        <v>87870</v>
+        <v>88794</v>
       </c>
     </row>
     <row r="48" ht="14" customHeight="1">
@@ -1853,16 +1853,16 @@
         <v>51</v>
       </c>
       <c r="B48" s="4">
-        <v>5618</v>
+        <v>5621</v>
       </c>
       <c r="C48" s="4">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D48" s="4">
-        <v>1697</v>
+        <v>1701</v>
       </c>
       <c r="E48" s="4">
-        <v>7585</v>
+        <v>7594</v>
       </c>
     </row>
     <row r="49" ht="14" customHeight="1">
@@ -1870,16 +1870,16 @@
         <v>52</v>
       </c>
       <c r="B49" s="4">
-        <v>1230</v>
+        <v>1236</v>
       </c>
       <c r="C49" s="4">
         <v>12</v>
       </c>
       <c r="D49" s="4">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="E49" s="4">
-        <v>2225</v>
+        <v>2232</v>
       </c>
     </row>
     <row r="50" ht="14" customHeight="1">
@@ -1887,16 +1887,16 @@
         <v>53</v>
       </c>
       <c r="B50" s="4">
-        <v>19527</v>
+        <v>19648</v>
       </c>
       <c r="C50" s="4">
-        <v>1130</v>
+        <v>1139</v>
       </c>
       <c r="D50" s="4">
-        <v>3219</v>
+        <v>3223</v>
       </c>
       <c r="E50" s="4">
-        <v>23876</v>
+        <v>24010</v>
       </c>
     </row>
     <row r="51" ht="14" customHeight="1">
@@ -1904,16 +1904,16 @@
         <v>54</v>
       </c>
       <c r="B51" s="4">
-        <v>68718</v>
+        <v>68883</v>
       </c>
       <c r="C51" s="4">
-        <v>1975</v>
+        <v>1985</v>
       </c>
       <c r="D51" s="4">
-        <v>1849</v>
+        <v>1873</v>
       </c>
       <c r="E51" s="4">
-        <v>72542</v>
+        <v>72741</v>
       </c>
     </row>
     <row r="52" ht="14" customHeight="1">
@@ -1921,7 +1921,7 @@
         <v>55</v>
       </c>
       <c r="B52" s="4">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C52" s="4">
         <v>13</v>
@@ -1930,7 +1930,7 @@
         <v>568</v>
       </c>
       <c r="E52" s="4">
-        <v>1155</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="53" ht="14" customHeight="1">
@@ -1938,16 +1938,16 @@
         <v>56</v>
       </c>
       <c r="B53" s="4">
-        <v>3313</v>
+        <v>3315</v>
       </c>
       <c r="C53" s="4">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D53" s="4">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="E53" s="4">
-        <v>4216</v>
+        <v>4220</v>
       </c>
     </row>
     <row r="54" ht="14" customHeight="1">
@@ -1955,16 +1955,16 @@
         <v>57</v>
       </c>
       <c r="B54" s="4">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C54" s="4">
         <v>9</v>
       </c>
       <c r="D54" s="4">
-        <v>1344</v>
+        <v>1397</v>
       </c>
       <c r="E54" s="4">
-        <v>2243</v>
+        <v>2297</v>
       </c>
     </row>
     <row r="55" ht="14" customHeight="1">
@@ -1972,16 +1972,16 @@
         <v>58</v>
       </c>
       <c r="B55" s="4">
-        <v>2136</v>
+        <v>2137</v>
       </c>
       <c r="C55" s="4">
         <v>17</v>
       </c>
       <c r="D55" s="4">
-        <v>1200</v>
+        <v>1204</v>
       </c>
       <c r="E55" s="4">
-        <v>3353</v>
+        <v>3358</v>
       </c>
     </row>
     <row r="56" ht="14" customHeight="1">
@@ -1989,16 +1989,16 @@
         <v>59</v>
       </c>
       <c r="B56" s="4">
-        <v>1865</v>
+        <v>1875</v>
       </c>
       <c r="C56" s="4">
         <v>10</v>
       </c>
       <c r="D56" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E56" s="4">
-        <v>1898</v>
+        <v>1909</v>
       </c>
     </row>
     <row r="57" ht="14" customHeight="1">
@@ -2006,7 +2006,7 @@
         <v>60</v>
       </c>
       <c r="B57" s="4">
-        <v>817</v>
+        <v>867</v>
       </c>
       <c r="C57" s="4">
         <v>51</v>
@@ -2015,7 +2015,7 @@
         <v>1048</v>
       </c>
       <c r="E57" s="4">
-        <v>1916</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="58" ht="14" customHeight="1">
@@ -2023,16 +2023,16 @@
         <v>61</v>
       </c>
       <c r="B58" s="4">
-        <v>1748145</v>
+        <v>1760990</v>
       </c>
       <c r="C58" s="4">
-        <v>115289</v>
+        <v>116247</v>
       </c>
       <c r="D58" s="4">
-        <v>109648</v>
+        <v>110737</v>
       </c>
       <c r="E58" s="4">
-        <v>1973082</v>
+        <v>1987974</v>
       </c>
     </row>
     <row r="59" ht="14" customHeight="1">
@@ -2040,16 +2040,16 @@
         <v>62</v>
       </c>
       <c r="B59" s="4">
-        <v>6650</v>
+        <v>6657</v>
       </c>
       <c r="C59" s="4">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D59" s="4">
-        <v>1589</v>
+        <v>1592</v>
       </c>
       <c r="E59" s="4">
-        <v>8642</v>
+        <v>8653</v>
       </c>
     </row>
     <row r="60" ht="14" customHeight="1">
@@ -2057,16 +2057,16 @@
         <v>63</v>
       </c>
       <c r="B60" s="4">
-        <v>6649</v>
+        <v>6687</v>
       </c>
       <c r="C60" s="4">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D60" s="4">
-        <v>1728</v>
+        <v>1735</v>
       </c>
       <c r="E60" s="4">
-        <v>8530</v>
+        <v>8577</v>
       </c>
     </row>
     <row r="61" ht="14" customHeight="1">
@@ -2074,16 +2074,16 @@
         <v>64</v>
       </c>
       <c r="B61" s="4">
-        <v>4008</v>
+        <v>4016</v>
       </c>
       <c r="C61" s="4">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D61" s="4">
-        <v>1557</v>
+        <v>1561</v>
       </c>
       <c r="E61" s="4">
-        <v>5803</v>
+        <v>5816</v>
       </c>
     </row>
     <row r="62" ht="14" customHeight="1">
@@ -2091,16 +2091,16 @@
         <v>65</v>
       </c>
       <c r="B62" s="4">
-        <v>1373</v>
+        <v>1388</v>
       </c>
       <c r="C62" s="4">
         <v>196</v>
       </c>
       <c r="D62" s="4">
-        <v>798</v>
+        <v>808</v>
       </c>
       <c r="E62" s="4">
-        <v>2367</v>
+        <v>2392</v>
       </c>
     </row>
     <row r="63" ht="14" customHeight="1">
@@ -2108,16 +2108,16 @@
         <v>66</v>
       </c>
       <c r="B63" s="4">
-        <v>415968</v>
+        <v>419263</v>
       </c>
       <c r="C63" s="4">
-        <v>51292</v>
+        <v>51608</v>
       </c>
       <c r="D63" s="4">
-        <v>40911</v>
+        <v>41251</v>
       </c>
       <c r="E63" s="4">
-        <v>508171</v>
+        <v>512122</v>
       </c>
     </row>
     <row r="64" ht="14" customHeight="1">
@@ -2142,16 +2142,16 @@
         <v>68</v>
       </c>
       <c r="B65" s="4">
-        <v>6924</v>
+        <v>6955</v>
       </c>
       <c r="C65" s="4">
         <v>81</v>
       </c>
       <c r="D65" s="4">
-        <v>325</v>
+        <v>365</v>
       </c>
       <c r="E65" s="4">
-        <v>7330</v>
+        <v>7401</v>
       </c>
     </row>
     <row r="66" ht="14" customHeight="1">
@@ -2159,16 +2159,16 @@
         <v>69</v>
       </c>
       <c r="B66" s="4">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="C66" s="4">
         <v>186</v>
       </c>
       <c r="D66" s="4">
-        <v>477</v>
+        <v>491</v>
       </c>
       <c r="E66" s="4">
-        <v>1695</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="67" ht="14" customHeight="1">
@@ -2176,16 +2176,16 @@
         <v>70</v>
       </c>
       <c r="B67" s="4">
-        <v>13962</v>
+        <v>13995</v>
       </c>
       <c r="C67" s="4">
-        <v>1969</v>
+        <v>1978</v>
       </c>
       <c r="D67" s="4">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="E67" s="4">
-        <v>16757</v>
+        <v>16805</v>
       </c>
     </row>
     <row r="68" ht="14" customHeight="1">
@@ -2193,16 +2193,16 @@
         <v>71</v>
       </c>
       <c r="B68" s="4">
-        <v>3648</v>
+        <v>3658</v>
       </c>
       <c r="C68" s="4">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D68" s="4">
-        <v>2401</v>
+        <v>2414</v>
       </c>
       <c r="E68" s="4">
-        <v>6344</v>
+        <v>6368</v>
       </c>
     </row>
     <row r="69" ht="14" customHeight="1">
@@ -2210,16 +2210,16 @@
         <v>72</v>
       </c>
       <c r="B69" s="4">
-        <v>50128</v>
+        <v>50287</v>
       </c>
       <c r="C69" s="4">
-        <v>3788</v>
+        <v>3830</v>
       </c>
       <c r="D69" s="4">
-        <v>10109</v>
+        <v>10136</v>
       </c>
       <c r="E69" s="4">
-        <v>64025</v>
+        <v>64253</v>
       </c>
     </row>
     <row r="70" ht="14" customHeight="1">
@@ -2227,16 +2227,16 @@
         <v>73</v>
       </c>
       <c r="B70" s="4">
-        <v>976</v>
+        <v>989</v>
       </c>
       <c r="C70" s="4">
         <v>27</v>
       </c>
       <c r="D70" s="4">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="E70" s="4">
-        <v>1271</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="71" ht="14" customHeight="1">
@@ -2244,16 +2244,16 @@
         <v>74</v>
       </c>
       <c r="B71" s="4">
-        <v>676881</v>
+        <v>681975</v>
       </c>
       <c r="C71" s="4">
-        <v>14818</v>
+        <v>14892</v>
       </c>
       <c r="D71" s="4">
-        <v>75011</v>
+        <v>78370</v>
       </c>
       <c r="E71" s="4">
-        <v>766710</v>
+        <v>775237</v>
       </c>
     </row>
     <row r="72" ht="14" customHeight="1">
@@ -2261,16 +2261,16 @@
         <v>75</v>
       </c>
       <c r="B72" s="4">
-        <v>124977</v>
+        <v>125654</v>
       </c>
       <c r="C72" s="4">
-        <v>6265</v>
+        <v>6304</v>
       </c>
       <c r="D72" s="4">
-        <v>5398</v>
+        <v>5482</v>
       </c>
       <c r="E72" s="4">
-        <v>136640</v>
+        <v>137440</v>
       </c>
     </row>
     <row r="73" ht="14" customHeight="1">
@@ -2278,16 +2278,16 @@
         <v>76</v>
       </c>
       <c r="B73" s="4">
-        <v>14077</v>
+        <v>14144</v>
       </c>
       <c r="C73" s="4">
-        <v>985</v>
+        <v>990</v>
       </c>
       <c r="D73" s="4">
-        <v>3542</v>
+        <v>3563</v>
       </c>
       <c r="E73" s="4">
-        <v>18604</v>
+        <v>18697</v>
       </c>
     </row>
     <row r="74" ht="14" customHeight="1">
@@ -2295,16 +2295,16 @@
         <v>77</v>
       </c>
       <c r="B74" s="4">
-        <v>10639</v>
+        <v>10674</v>
       </c>
       <c r="C74" s="4">
         <v>370</v>
       </c>
       <c r="D74" s="4">
-        <v>1136</v>
+        <v>1147</v>
       </c>
       <c r="E74" s="4">
-        <v>12145</v>
+        <v>12191</v>
       </c>
     </row>
     <row r="75" ht="14" customHeight="1">
@@ -2312,16 +2312,16 @@
         <v>78</v>
       </c>
       <c r="B75" s="4">
-        <v>19604</v>
+        <v>19708</v>
       </c>
       <c r="C75" s="4">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="D75" s="4">
-        <v>2546</v>
+        <v>2577</v>
       </c>
       <c r="E75" s="4">
-        <v>22822</v>
+        <v>22961</v>
       </c>
     </row>
     <row r="76" ht="14" customHeight="1">
@@ -2329,16 +2329,16 @@
         <v>79</v>
       </c>
       <c r="B76" s="4">
-        <v>11231</v>
+        <v>11291</v>
       </c>
       <c r="C76" s="4">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="D76" s="4">
-        <v>1141</v>
+        <v>1157</v>
       </c>
       <c r="E76" s="4">
-        <v>12685</v>
+        <v>12762</v>
       </c>
     </row>
     <row r="77" ht="14" customHeight="1">
@@ -2346,16 +2346,16 @@
         <v>80</v>
       </c>
       <c r="B77" s="4">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="C77" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D77" s="4">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E77" s="4">
-        <v>1378</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="78" ht="14" customHeight="1">
@@ -2363,16 +2363,16 @@
         <v>81</v>
       </c>
       <c r="B78" s="4">
-        <v>1918</v>
+        <v>1924</v>
       </c>
       <c r="C78" s="4">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="D78" s="4">
         <v>247</v>
       </c>
       <c r="E78" s="4">
-        <v>2268</v>
+        <v>2277</v>
       </c>
     </row>
     <row r="79" ht="14" customHeight="1">
@@ -2386,10 +2386,10 @@
         <v>6</v>
       </c>
       <c r="D79" s="4">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E79" s="4">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
     <row r="80" ht="14" customHeight="1">
@@ -2397,16 +2397,16 @@
         <v>83</v>
       </c>
       <c r="B80" s="4">
-        <v>475853</v>
+        <v>479885</v>
       </c>
       <c r="C80" s="4">
-        <v>18419</v>
+        <v>18504</v>
       </c>
       <c r="D80" s="4">
-        <v>16100</v>
+        <v>16372</v>
       </c>
       <c r="E80" s="4">
-        <v>510372</v>
+        <v>514761</v>
       </c>
     </row>
     <row r="81" ht="14" customHeight="1">
@@ -2414,7 +2414,7 @@
         <v>84</v>
       </c>
       <c r="B81" s="4">
-        <v>3512</v>
+        <v>3529</v>
       </c>
       <c r="C81" s="4">
         <v>412</v>
@@ -2423,7 +2423,7 @@
         <v>446</v>
       </c>
       <c r="E81" s="4">
-        <v>4370</v>
+        <v>4387</v>
       </c>
     </row>
     <row r="82" ht="14" customHeight="1">
@@ -2431,16 +2431,16 @@
         <v>85</v>
       </c>
       <c r="B82" s="4">
-        <v>11242</v>
+        <v>11305</v>
       </c>
       <c r="C82" s="4">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D82" s="4">
-        <v>2401</v>
+        <v>2422</v>
       </c>
       <c r="E82" s="4">
-        <v>14241</v>
+        <v>14326</v>
       </c>
     </row>
     <row r="83" ht="14" customHeight="1">
@@ -2448,16 +2448,16 @@
         <v>86</v>
       </c>
       <c r="B83" s="4">
-        <v>11996</v>
+        <v>12126</v>
       </c>
       <c r="C83" s="4">
         <v>373</v>
       </c>
       <c r="D83" s="4">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E83" s="4">
-        <v>12687</v>
+        <v>12818</v>
       </c>
     </row>
     <row r="84" ht="14" customHeight="1">
@@ -2465,16 +2465,16 @@
         <v>87</v>
       </c>
       <c r="B84" s="4">
-        <v>2874</v>
+        <v>2883</v>
       </c>
       <c r="C84" s="4">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D84" s="4">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E84" s="4">
-        <v>3654</v>
+        <v>3667</v>
       </c>
     </row>
     <row r="85" ht="14" customHeight="1">
@@ -2482,16 +2482,16 @@
         <v>88</v>
       </c>
       <c r="B85" s="4">
-        <v>257494</v>
+        <v>258555</v>
       </c>
       <c r="C85" s="4">
-        <v>7753</v>
+        <v>7788</v>
       </c>
       <c r="D85" s="4">
-        <v>12749</v>
+        <v>13182</v>
       </c>
       <c r="E85" s="4">
-        <v>277996</v>
+        <v>279525</v>
       </c>
     </row>
     <row r="86" ht="14" customHeight="1">
@@ -2499,16 +2499,16 @@
         <v>89</v>
       </c>
       <c r="B86" s="4">
-        <v>1315</v>
+        <v>1318</v>
       </c>
       <c r="C86" s="4">
         <v>43</v>
       </c>
       <c r="D86" s="4">
-        <v>1112</v>
+        <v>1114</v>
       </c>
       <c r="E86" s="4">
-        <v>2470</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="87" ht="14" customHeight="1">
@@ -2516,16 +2516,16 @@
         <v>90</v>
       </c>
       <c r="B87" s="4">
-        <v>13666</v>
+        <v>13692</v>
       </c>
       <c r="C87" s="4">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D87" s="4">
-        <v>2004</v>
+        <v>2094</v>
       </c>
       <c r="E87" s="4">
-        <v>15965</v>
+        <v>16085</v>
       </c>
     </row>
     <row r="88" ht="14" customHeight="1">
@@ -2533,7 +2533,7 @@
         <v>91</v>
       </c>
       <c r="B88" s="4">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C88" s="4">
         <v>25</v>
@@ -2542,7 +2542,7 @@
         <v>52</v>
       </c>
       <c r="E88" s="4">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="89" ht="14" customHeight="1">
@@ -2550,16 +2550,16 @@
         <v>92</v>
       </c>
       <c r="B89" s="4">
-        <v>2060</v>
+        <v>2071</v>
       </c>
       <c r="C89" s="4">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D89" s="4">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="E89" s="4">
-        <v>3241</v>
+        <v>3255</v>
       </c>
     </row>
     <row r="90" ht="14" customHeight="1">
@@ -2567,16 +2567,16 @@
         <v>93</v>
       </c>
       <c r="B90" s="4">
-        <v>10514</v>
+        <v>10568</v>
       </c>
       <c r="C90" s="4">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D90" s="4">
-        <v>1962</v>
+        <v>1970</v>
       </c>
       <c r="E90" s="4">
-        <v>12741</v>
+        <v>12804</v>
       </c>
     </row>
     <row r="91" ht="14" customHeight="1">
@@ -2584,16 +2584,16 @@
         <v>94</v>
       </c>
       <c r="B91" s="4">
-        <v>6480</v>
+        <v>6506</v>
       </c>
       <c r="C91" s="4">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D91" s="4">
-        <v>1216</v>
+        <v>1219</v>
       </c>
       <c r="E91" s="4">
-        <v>7937</v>
+        <v>7967</v>
       </c>
     </row>
     <row r="92" ht="14" customHeight="1">
@@ -2601,16 +2601,16 @@
         <v>95</v>
       </c>
       <c r="B92" s="4">
-        <v>78868</v>
+        <v>79305</v>
       </c>
       <c r="C92" s="4">
-        <v>3196</v>
+        <v>3222</v>
       </c>
       <c r="D92" s="4">
-        <v>7324</v>
+        <v>7400</v>
       </c>
       <c r="E92" s="4">
-        <v>89388</v>
+        <v>89927</v>
       </c>
     </row>
     <row r="93" ht="14" customHeight="1">
@@ -2618,16 +2618,16 @@
         <v>96</v>
       </c>
       <c r="B93" s="4">
-        <v>38528</v>
+        <v>38712</v>
       </c>
       <c r="C93" s="4">
-        <v>8282</v>
+        <v>8310</v>
       </c>
       <c r="D93" s="4">
-        <v>9234</v>
+        <v>9337</v>
       </c>
       <c r="E93" s="4">
-        <v>56044</v>
+        <v>56359</v>
       </c>
     </row>
     <row r="94" ht="14" customHeight="1">
@@ -2635,16 +2635,16 @@
         <v>97</v>
       </c>
       <c r="B94" s="4">
-        <v>19888</v>
+        <v>19963</v>
       </c>
       <c r="C94" s="4">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D94" s="4">
-        <v>958</v>
+        <v>967</v>
       </c>
       <c r="E94" s="4">
-        <v>21251</v>
+        <v>21337</v>
       </c>
     </row>
     <row r="95" ht="14" customHeight="1">
@@ -2652,16 +2652,16 @@
         <v>98</v>
       </c>
       <c r="B95" s="4">
-        <v>54902</v>
+        <v>55305</v>
       </c>
       <c r="C95" s="4">
-        <v>2704</v>
+        <v>2718</v>
       </c>
       <c r="D95" s="4">
-        <v>9002</v>
+        <v>9156</v>
       </c>
       <c r="E95" s="4">
-        <v>66608</v>
+        <v>67179</v>
       </c>
     </row>
     <row r="96" ht="14" customHeight="1">
@@ -2669,16 +2669,16 @@
         <v>99</v>
       </c>
       <c r="B96" s="4">
-        <v>10746</v>
+        <v>10761</v>
       </c>
       <c r="C96" s="4">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D96" s="4">
-        <v>1518</v>
+        <v>1527</v>
       </c>
       <c r="E96" s="4">
-        <v>12494</v>
+        <v>12520</v>
       </c>
     </row>
     <row r="97" ht="14" customHeight="1">
@@ -2686,16 +2686,16 @@
         <v>100</v>
       </c>
       <c r="B97" s="4">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="C97" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D97" s="4">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="E97" s="4">
-        <v>2682</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="98" ht="14" customHeight="1">
@@ -2703,16 +2703,16 @@
         <v>101</v>
       </c>
       <c r="B98" s="4">
-        <v>3964</v>
+        <v>3979</v>
       </c>
       <c r="C98" s="4">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D98" s="4">
-        <v>629</v>
+        <v>659</v>
       </c>
       <c r="E98" s="4">
-        <v>4865</v>
+        <v>4912</v>
       </c>
     </row>
     <row r="99" ht="14" customHeight="1">
@@ -2720,16 +2720,16 @@
         <v>102</v>
       </c>
       <c r="B99" s="4">
-        <v>1075</v>
+        <v>1094</v>
       </c>
       <c r="C99" s="4">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="D99" s="4">
-        <v>1346</v>
+        <v>1387</v>
       </c>
       <c r="E99" s="4">
-        <v>2731</v>
+        <v>2805</v>
       </c>
     </row>
     <row r="100" ht="14" customHeight="1">
@@ -2737,16 +2737,16 @@
         <v>103</v>
       </c>
       <c r="B100" s="4">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="C100" s="4">
         <v>48</v>
       </c>
       <c r="D100" s="4">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="E100" s="4">
-        <v>2036</v>
+        <v>2038</v>
       </c>
     </row>
     <row r="101" ht="14" customHeight="1">
@@ -2754,16 +2754,16 @@
         <v>104</v>
       </c>
       <c r="B101" s="4">
-        <v>15281</v>
+        <v>15372</v>
       </c>
       <c r="C101" s="4">
-        <v>2967</v>
+        <v>2970</v>
       </c>
       <c r="D101" s="4">
-        <v>3559</v>
+        <v>3584</v>
       </c>
       <c r="E101" s="4">
-        <v>21807</v>
+        <v>21926</v>
       </c>
     </row>
     <row r="102" ht="14" customHeight="1">
@@ -2771,16 +2771,16 @@
         <v>105</v>
       </c>
       <c r="B102" s="4">
-        <v>2919301</v>
+        <v>2939135</v>
       </c>
       <c r="C102" s="4">
-        <v>112593</v>
+        <v>113061</v>
       </c>
       <c r="D102" s="4">
-        <v>150249</v>
+        <v>153568</v>
       </c>
       <c r="E102" s="4">
-        <v>3182143</v>
+        <v>3205764</v>
       </c>
     </row>
     <row r="103" ht="14" customHeight="1">
@@ -2788,16 +2788,16 @@
         <v>106</v>
       </c>
       <c r="B103" s="4">
-        <v>48083</v>
+        <v>48426</v>
       </c>
       <c r="C103" s="4">
-        <v>5943</v>
+        <v>5968</v>
       </c>
       <c r="D103" s="4">
-        <v>5219</v>
+        <v>5275</v>
       </c>
       <c r="E103" s="4">
-        <v>59245</v>
+        <v>59669</v>
       </c>
     </row>
     <row r="104" ht="14" customHeight="1">
@@ -2805,7 +2805,7 @@
         <v>107</v>
       </c>
       <c r="B104" s="4">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C104" s="4">
         <v>13</v>
@@ -2814,7 +2814,7 @@
         <v>73</v>
       </c>
       <c r="E104" s="4">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="105" ht="14" customHeight="1">
@@ -2822,16 +2822,16 @@
         <v>108</v>
       </c>
       <c r="B105" s="4">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="C105" s="4">
         <v>27</v>
       </c>
       <c r="D105" s="4">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="E105" s="4">
-        <v>2065</v>
+        <v>2068</v>
       </c>
     </row>
     <row r="106" ht="14" customHeight="1">
@@ -2839,16 +2839,16 @@
         <v>109</v>
       </c>
       <c r="B106" s="4">
-        <v>166983</v>
+        <v>168303</v>
       </c>
       <c r="C106" s="4">
-        <v>9380</v>
+        <v>9394</v>
       </c>
       <c r="D106" s="4">
-        <v>6604</v>
+        <v>7016</v>
       </c>
       <c r="E106" s="4">
-        <v>182967</v>
+        <v>184713</v>
       </c>
     </row>
     <row r="107" ht="14" customHeight="1">
@@ -2856,16 +2856,16 @@
         <v>110</v>
       </c>
       <c r="B107" s="4">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="C107" s="4">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="D107" s="4">
         <v>41</v>
       </c>
       <c r="E107" s="4">
-        <v>1063</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="108" ht="14" customHeight="1">
@@ -2873,16 +2873,16 @@
         <v>111</v>
       </c>
       <c r="B108" s="4">
-        <v>21583</v>
+        <v>21700</v>
       </c>
       <c r="C108" s="4">
-        <v>1923</v>
+        <v>1934</v>
       </c>
       <c r="D108" s="4">
-        <v>4521</v>
+        <v>4553</v>
       </c>
       <c r="E108" s="4">
-        <v>28027</v>
+        <v>28187</v>
       </c>
     </row>
     <row r="109" ht="14" customHeight="1">
@@ -2890,16 +2890,16 @@
         <v>112</v>
       </c>
       <c r="B109" s="4">
-        <v>348474</v>
+        <v>349722</v>
       </c>
       <c r="C109" s="4">
-        <v>12833</v>
+        <v>12924</v>
       </c>
       <c r="D109" s="4">
-        <v>49400</v>
+        <v>53775</v>
       </c>
       <c r="E109" s="4">
-        <v>410707</v>
+        <v>416421</v>
       </c>
     </row>
     <row r="110" ht="14" customHeight="1">
@@ -2907,16 +2907,16 @@
         <v>113</v>
       </c>
       <c r="B110" s="4">
-        <v>27662</v>
+        <v>27809</v>
       </c>
       <c r="C110" s="4">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="D110" s="4">
-        <v>3711</v>
+        <v>3730</v>
       </c>
       <c r="E110" s="4">
-        <v>32298</v>
+        <v>32466</v>
       </c>
     </row>
     <row r="111" ht="14" customHeight="1">
@@ -2924,16 +2924,16 @@
         <v>114</v>
       </c>
       <c r="B111" s="4">
-        <v>6553</v>
+        <v>6575</v>
       </c>
       <c r="C111" s="4">
         <v>68</v>
       </c>
       <c r="D111" s="4">
-        <v>2284</v>
+        <v>2290</v>
       </c>
       <c r="E111" s="4">
-        <v>8905</v>
+        <v>8933</v>
       </c>
     </row>
     <row r="112" ht="14" customHeight="1">
@@ -2941,16 +2941,16 @@
         <v>115</v>
       </c>
       <c r="B112" s="4">
-        <v>28254</v>
+        <v>28443</v>
       </c>
       <c r="C112" s="4">
-        <v>2111</v>
+        <v>2117</v>
       </c>
       <c r="D112" s="4">
-        <v>12449</v>
+        <v>12540</v>
       </c>
       <c r="E112" s="4">
-        <v>42814</v>
+        <v>43100</v>
       </c>
     </row>
     <row r="113" ht="14" customHeight="1">
@@ -2958,16 +2958,16 @@
         <v>116</v>
       </c>
       <c r="B113" s="4">
-        <v>13647</v>
+        <v>13736</v>
       </c>
       <c r="C113" s="4">
-        <v>1763</v>
+        <v>1765</v>
       </c>
       <c r="D113" s="4">
-        <v>1603</v>
+        <v>1618</v>
       </c>
       <c r="E113" s="4">
-        <v>17013</v>
+        <v>17119</v>
       </c>
     </row>
     <row r="114" ht="14" customHeight="1">
@@ -2975,16 +2975,16 @@
         <v>117</v>
       </c>
       <c r="B114" s="4">
-        <v>12778</v>
+        <v>12802</v>
       </c>
       <c r="C114" s="4">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="D114" s="4">
-        <v>1476</v>
+        <v>1478</v>
       </c>
       <c r="E114" s="4">
-        <v>14556</v>
+        <v>14586</v>
       </c>
     </row>
     <row r="115" ht="14" customHeight="1">
@@ -2992,16 +2992,16 @@
         <v>118</v>
       </c>
       <c r="B115" s="4">
-        <v>12441</v>
+        <v>12487</v>
       </c>
       <c r="C115" s="4">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="D115" s="4">
-        <v>2701</v>
+        <v>2704</v>
       </c>
       <c r="E115" s="4">
-        <v>15534</v>
+        <v>15586</v>
       </c>
     </row>
     <row r="116" ht="14" customHeight="1">
@@ -3009,16 +3009,16 @@
         <v>119</v>
       </c>
       <c r="B116" s="4">
-        <v>2028</v>
+        <v>2039</v>
       </c>
       <c r="C116" s="4">
         <v>24</v>
       </c>
       <c r="D116" s="4">
-        <v>482</v>
+        <v>523</v>
       </c>
       <c r="E116" s="4">
-        <v>2534</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="117" ht="14" customHeight="1">
@@ -3026,16 +3026,16 @@
         <v>120</v>
       </c>
       <c r="B117" s="4">
-        <v>58463</v>
+        <v>58871</v>
       </c>
       <c r="C117" s="4">
-        <v>3171</v>
+        <v>3186</v>
       </c>
       <c r="D117" s="4">
-        <v>5767</v>
+        <v>5902</v>
       </c>
       <c r="E117" s="4">
-        <v>67401</v>
+        <v>67959</v>
       </c>
     </row>
     <row r="118" ht="14" customHeight="1">
@@ -3043,16 +3043,16 @@
         <v>121</v>
       </c>
       <c r="B118" s="4">
-        <v>7485</v>
+        <v>7501</v>
       </c>
       <c r="C118" s="4">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D118" s="4">
-        <v>1962</v>
+        <v>1966</v>
       </c>
       <c r="E118" s="4">
-        <v>9869</v>
+        <v>9890</v>
       </c>
     </row>
     <row r="119" ht="14" customHeight="1">
@@ -3060,16 +3060,16 @@
         <v>122</v>
       </c>
       <c r="B119" s="4">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C119" s="4">
         <v>7</v>
       </c>
       <c r="D119" s="4">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="E119" s="4">
-        <v>490</v>
+        <v>494</v>
       </c>
     </row>
     <row r="120" ht="14" customHeight="1">
@@ -3077,16 +3077,16 @@
         <v>123</v>
       </c>
       <c r="B120" s="4">
-        <v>1348</v>
+        <v>1358</v>
       </c>
       <c r="C120" s="4">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D120" s="4">
         <v>182</v>
       </c>
       <c r="E120" s="4">
-        <v>1628</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="121" ht="14" customHeight="1">
@@ -3094,16 +3094,16 @@
         <v>124</v>
       </c>
       <c r="B121" s="4">
-        <v>5804</v>
+        <v>5842</v>
       </c>
       <c r="C121" s="4">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D121" s="4">
-        <v>692</v>
+        <v>712</v>
       </c>
       <c r="E121" s="4">
-        <v>6594</v>
+        <v>6653</v>
       </c>
     </row>
     <row r="122" ht="14" customHeight="1">
@@ -3111,16 +3111,16 @@
         <v>125</v>
       </c>
       <c r="B122" s="4">
-        <v>10563</v>
+        <v>10623</v>
       </c>
       <c r="C122" s="4">
-        <v>2425</v>
+        <v>2427</v>
       </c>
       <c r="D122" s="4">
-        <v>1865</v>
+        <v>1868</v>
       </c>
       <c r="E122" s="4">
-        <v>14853</v>
+        <v>14918</v>
       </c>
     </row>
     <row r="123" ht="14" customHeight="1">
@@ -3134,10 +3134,10 @@
         <v>24</v>
       </c>
       <c r="D123" s="4">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E123" s="4">
-        <v>1600</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="124" ht="14" customHeight="1">
@@ -3145,16 +3145,16 @@
         <v>127</v>
       </c>
       <c r="B124" s="4">
-        <v>131444</v>
+        <v>132162</v>
       </c>
       <c r="C124" s="4">
-        <v>10962</v>
+        <v>10980</v>
       </c>
       <c r="D124" s="4">
-        <v>17254</v>
+        <v>17430</v>
       </c>
       <c r="E124" s="4">
-        <v>159660</v>
+        <v>160572</v>
       </c>
     </row>
     <row r="125" ht="14" customHeight="1">
@@ -3162,16 +3162,16 @@
         <v>128</v>
       </c>
       <c r="B125" s="4">
-        <v>9642</v>
+        <v>9647</v>
       </c>
       <c r="C125" s="4">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="D125" s="4">
-        <v>338</v>
+        <v>367</v>
       </c>
       <c r="E125" s="4">
-        <v>10400</v>
+        <v>10439</v>
       </c>
     </row>
     <row r="126" ht="14" customHeight="1">
@@ -3179,16 +3179,16 @@
         <v>129</v>
       </c>
       <c r="B126" s="4">
-        <v>38140</v>
+        <v>38371</v>
       </c>
       <c r="C126" s="4">
-        <v>6390</v>
+        <v>6435</v>
       </c>
       <c r="D126" s="4">
-        <v>8344</v>
+        <v>8391</v>
       </c>
       <c r="E126" s="4">
-        <v>52874</v>
+        <v>53197</v>
       </c>
     </row>
     <row r="127" ht="14" customHeight="1">
@@ -3196,16 +3196,16 @@
         <v>130</v>
       </c>
       <c r="B127" s="4">
-        <v>90637</v>
+        <v>91403</v>
       </c>
       <c r="C127" s="4">
-        <v>5861</v>
+        <v>5882</v>
       </c>
       <c r="D127" s="4">
-        <v>8621</v>
+        <v>8820</v>
       </c>
       <c r="E127" s="4">
-        <v>105119</v>
+        <v>106105</v>
       </c>
     </row>
     <row r="128" ht="14" customHeight="1">
@@ -3213,16 +3213,16 @@
         <v>131</v>
       </c>
       <c r="B128" s="4">
-        <v>4738</v>
+        <v>4749</v>
       </c>
       <c r="C128" s="4">
         <v>177</v>
       </c>
       <c r="D128" s="4">
-        <v>1851</v>
+        <v>1885</v>
       </c>
       <c r="E128" s="4">
-        <v>6766</v>
+        <v>6811</v>
       </c>
     </row>
     <row r="129" ht="14" customHeight="1">
@@ -3230,16 +3230,16 @@
         <v>132</v>
       </c>
       <c r="B129" s="4">
-        <v>10937</v>
+        <v>11008</v>
       </c>
       <c r="C129" s="4">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D129" s="4">
-        <v>2635</v>
+        <v>2655</v>
       </c>
       <c r="E129" s="4">
-        <v>13917</v>
+        <v>14010</v>
       </c>
     </row>
     <row r="130" ht="14" customHeight="1">
@@ -3247,16 +3247,16 @@
         <v>133</v>
       </c>
       <c r="B130" s="4">
-        <v>78866</v>
+        <v>79475</v>
       </c>
       <c r="C130" s="4">
-        <v>4436</v>
+        <v>4478</v>
       </c>
       <c r="D130" s="4">
-        <v>8629</v>
+        <v>8743</v>
       </c>
       <c r="E130" s="4">
-        <v>91931</v>
+        <v>92696</v>
       </c>
     </row>
     <row r="131" ht="14" customHeight="1">
@@ -3264,16 +3264,16 @@
         <v>134</v>
       </c>
       <c r="B131" s="4">
-        <v>16757</v>
+        <v>16845</v>
       </c>
       <c r="C131" s="4">
-        <v>1029</v>
+        <v>1035</v>
       </c>
       <c r="D131" s="4">
-        <v>4268</v>
+        <v>4370</v>
       </c>
       <c r="E131" s="4">
-        <v>22054</v>
+        <v>22250</v>
       </c>
     </row>
     <row r="132" ht="14" customHeight="1">
@@ -3281,7 +3281,7 @@
         <v>135</v>
       </c>
       <c r="B132" s="4">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C132" s="4">
         <v>32</v>
@@ -3290,7 +3290,7 @@
         <v>30</v>
       </c>
       <c r="E132" s="4">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="133" ht="14" customHeight="1">
@@ -3298,7 +3298,7 @@
         <v>136</v>
       </c>
       <c r="B133" s="4">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C133" s="4">
         <v>1</v>
@@ -3307,7 +3307,7 @@
         <v>247</v>
       </c>
       <c r="E133" s="4">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="134" ht="14" customHeight="1">
@@ -3315,16 +3315,16 @@
         <v>137</v>
       </c>
       <c r="B134" s="4">
-        <v>24374</v>
+        <v>24429</v>
       </c>
       <c r="C134" s="4">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="D134" s="4">
-        <v>13654</v>
+        <v>13860</v>
       </c>
       <c r="E134" s="4">
-        <v>38542</v>
+        <v>38806</v>
       </c>
     </row>
     <row r="135" ht="14" customHeight="1">
@@ -3332,7 +3332,7 @@
         <v>138</v>
       </c>
       <c r="B135" s="4">
-        <v>1413</v>
+        <v>1417</v>
       </c>
       <c r="C135" s="4">
         <v>34</v>
@@ -3341,7 +3341,7 @@
         <v>245</v>
       </c>
       <c r="E135" s="4">
-        <v>1692</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="136" ht="14" customHeight="1">
@@ -3366,16 +3366,16 @@
         <v>140</v>
       </c>
       <c r="B137" s="4">
-        <v>1622</v>
+        <v>1630</v>
       </c>
       <c r="C137" s="4">
         <v>36</v>
       </c>
       <c r="D137" s="4">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E137" s="4">
-        <v>1710</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="138" ht="14" customHeight="1">
@@ -3383,16 +3383,16 @@
         <v>141</v>
       </c>
       <c r="B138" s="4">
-        <v>21159</v>
+        <v>21379</v>
       </c>
       <c r="C138" s="4">
-        <v>3539</v>
+        <v>3556</v>
       </c>
       <c r="D138" s="4">
-        <v>3565</v>
+        <v>3651</v>
       </c>
       <c r="E138" s="4">
-        <v>28263</v>
+        <v>28586</v>
       </c>
     </row>
     <row r="139" ht="14" customHeight="1">
@@ -3400,7 +3400,7 @@
         <v>142</v>
       </c>
       <c r="B139" s="4">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C139" s="4">
         <v>28</v>
@@ -3409,7 +3409,7 @@
         <v>1709</v>
       </c>
       <c r="E139" s="4">
-        <v>2314</v>
+        <v>2315</v>
       </c>
     </row>
     <row r="140" ht="14" customHeight="1">
@@ -3417,16 +3417,16 @@
         <v>143</v>
       </c>
       <c r="B140" s="4">
-        <v>5918</v>
+        <v>5929</v>
       </c>
       <c r="C140" s="4">
         <v>267</v>
       </c>
       <c r="D140" s="4">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E140" s="4">
-        <v>6323</v>
+        <v>6336</v>
       </c>
     </row>
     <row r="141" ht="14" customHeight="1">
@@ -3434,16 +3434,16 @@
         <v>144</v>
       </c>
       <c r="B141" s="4">
-        <v>17589</v>
+        <v>17617</v>
       </c>
       <c r="C141" s="4">
-        <v>1887</v>
+        <v>1891</v>
       </c>
       <c r="D141" s="4">
-        <v>1527</v>
+        <v>1531</v>
       </c>
       <c r="E141" s="4">
-        <v>21003</v>
+        <v>21039</v>
       </c>
     </row>
     <row r="142" ht="14" customHeight="1">
@@ -3451,16 +3451,16 @@
         <v>145</v>
       </c>
       <c r="B142" s="4">
-        <v>4834</v>
+        <v>4845</v>
       </c>
       <c r="C142" s="4">
         <v>69</v>
       </c>
       <c r="D142" s="4">
-        <v>2819</v>
+        <v>2839</v>
       </c>
       <c r="E142" s="4">
-        <v>7722</v>
+        <v>7753</v>
       </c>
     </row>
     <row r="143" ht="14" customHeight="1">
@@ -3468,16 +3468,16 @@
         <v>146</v>
       </c>
       <c r="B143" s="4">
-        <v>12651</v>
+        <v>12711</v>
       </c>
       <c r="C143" s="4">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="D143" s="4">
-        <v>1800</v>
+        <v>1866</v>
       </c>
       <c r="E143" s="4">
-        <v>15016</v>
+        <v>15145</v>
       </c>
     </row>
     <row r="144" ht="14" customHeight="1">
@@ -3485,16 +3485,16 @@
         <v>147</v>
       </c>
       <c r="B144" s="4">
-        <v>9129</v>
+        <v>9186</v>
       </c>
       <c r="C144" s="4">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D144" s="4">
-        <v>1635</v>
+        <v>1654</v>
       </c>
       <c r="E144" s="4">
-        <v>11096</v>
+        <v>11175</v>
       </c>
     </row>
     <row r="145" ht="14" customHeight="1">
@@ -3502,16 +3502,16 @@
         <v>148</v>
       </c>
       <c r="B145" s="4">
-        <v>6426</v>
+        <v>6464</v>
       </c>
       <c r="C145" s="4">
         <v>187</v>
       </c>
       <c r="D145" s="4">
-        <v>1582</v>
+        <v>1596</v>
       </c>
       <c r="E145" s="4">
-        <v>8195</v>
+        <v>8247</v>
       </c>
     </row>
     <row r="146" ht="14" customHeight="1">
@@ -3519,16 +3519,16 @@
         <v>149</v>
       </c>
       <c r="B146" s="4">
-        <v>7472</v>
+        <v>7513</v>
       </c>
       <c r="C146" s="4">
         <v>424</v>
       </c>
       <c r="D146" s="4">
-        <v>916</v>
+        <v>926</v>
       </c>
       <c r="E146" s="4">
-        <v>8812</v>
+        <v>8863</v>
       </c>
     </row>
     <row r="147" ht="14" customHeight="1">
@@ -3536,16 +3536,16 @@
         <v>150</v>
       </c>
       <c r="B147" s="4">
-        <v>37732</v>
+        <v>37959</v>
       </c>
       <c r="C147" s="4">
-        <v>2564</v>
+        <v>2579</v>
       </c>
       <c r="D147" s="4">
-        <v>3021</v>
+        <v>3068</v>
       </c>
       <c r="E147" s="4">
-        <v>43317</v>
+        <v>43606</v>
       </c>
     </row>
     <row r="148" ht="14" customHeight="1">
@@ -3553,16 +3553,16 @@
         <v>151</v>
       </c>
       <c r="B148" s="4">
-        <v>22684</v>
+        <v>22935</v>
       </c>
       <c r="C148" s="4">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="D148" s="4">
-        <v>2613</v>
+        <v>2637</v>
       </c>
       <c r="E148" s="4">
-        <v>25822</v>
+        <v>26099</v>
       </c>
     </row>
     <row r="149" ht="14" customHeight="1">
@@ -3587,16 +3587,16 @@
         <v>153</v>
       </c>
       <c r="B150" s="4">
-        <v>3932</v>
+        <v>3972</v>
       </c>
       <c r="C150" s="4">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="D150" s="4">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="E150" s="4">
-        <v>5102</v>
+        <v>5154</v>
       </c>
     </row>
     <row r="151" ht="14" customHeight="1">
@@ -3604,16 +3604,16 @@
         <v>154</v>
       </c>
       <c r="B151" s="4">
-        <v>7860</v>
+        <v>7903</v>
       </c>
       <c r="C151" s="4">
         <v>283</v>
       </c>
       <c r="D151" s="4">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="E151" s="4">
-        <v>8700</v>
+        <v>8754</v>
       </c>
     </row>
     <row r="152" ht="14" customHeight="1">
@@ -3624,13 +3624,13 @@
         <v>20</v>
       </c>
       <c r="C152" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D152" s="4">
         <v>3</v>
       </c>
       <c r="E152" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="153" ht="14" customHeight="1">
@@ -3638,16 +3638,16 @@
         <v>156</v>
       </c>
       <c r="B153" s="4">
-        <v>164056</v>
+        <v>164677</v>
       </c>
       <c r="C153" s="4">
-        <v>5944</v>
+        <v>5952</v>
       </c>
       <c r="D153" s="4">
-        <v>68762</v>
+        <v>69078</v>
       </c>
       <c r="E153" s="4">
-        <v>238762</v>
+        <v>239707</v>
       </c>
     </row>
     <row r="154" ht="14" customHeight="1">
@@ -3655,16 +3655,16 @@
         <v>157</v>
       </c>
       <c r="B154" s="4">
-        <v>2614</v>
+        <v>2617</v>
       </c>
       <c r="C154" s="4">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D154" s="4">
-        <v>965</v>
+        <v>1051</v>
       </c>
       <c r="E154" s="4">
-        <v>3654</v>
+        <v>3744</v>
       </c>
     </row>
     <row r="155" ht="14" customHeight="1">
@@ -3672,16 +3672,16 @@
         <v>158</v>
       </c>
       <c r="B155" s="4">
-        <v>10090</v>
+        <v>10118</v>
       </c>
       <c r="C155" s="4">
         <v>125</v>
       </c>
       <c r="D155" s="4">
-        <v>970</v>
+        <v>973</v>
       </c>
       <c r="E155" s="4">
-        <v>11185</v>
+        <v>11216</v>
       </c>
     </row>
     <row r="156" ht="14" customHeight="1">
@@ -3689,16 +3689,16 @@
         <v>159</v>
       </c>
       <c r="B156" s="4">
-        <v>1791</v>
+        <v>1804</v>
       </c>
       <c r="C156" s="4">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="D156" s="4">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="E156" s="4">
-        <v>3054</v>
+        <v>3072</v>
       </c>
     </row>
     <row r="157" ht="14" customHeight="1">
@@ -3706,16 +3706,16 @@
         <v>160</v>
       </c>
       <c r="B157" s="4">
-        <v>1022</v>
+        <v>1028</v>
       </c>
       <c r="C157" s="4">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D157" s="4">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E157" s="4">
-        <v>1489</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="158" ht="14" customHeight="1">
@@ -3723,16 +3723,16 @@
         <v>161</v>
       </c>
       <c r="B158" s="4">
-        <v>1704</v>
+        <v>1712</v>
       </c>
       <c r="C158" s="4">
         <v>42</v>
       </c>
       <c r="D158" s="4">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E158" s="4">
-        <v>1913</v>
+        <v>1923</v>
       </c>
     </row>
     <row r="159" ht="14" customHeight="1">
@@ -3740,16 +3740,16 @@
         <v>162</v>
       </c>
       <c r="B159" s="4">
-        <v>23648</v>
+        <v>23741</v>
       </c>
       <c r="C159" s="4">
         <v>582</v>
       </c>
       <c r="D159" s="4">
-        <v>1246</v>
+        <v>1335</v>
       </c>
       <c r="E159" s="4">
-        <v>25476</v>
+        <v>25658</v>
       </c>
     </row>
     <row r="160" ht="14" customHeight="1">
@@ -3757,16 +3757,16 @@
         <v>163</v>
       </c>
       <c r="B160" s="4">
-        <v>44469</v>
+        <v>44713</v>
       </c>
       <c r="C160" s="4">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D160" s="4">
-        <v>2441</v>
+        <v>2471</v>
       </c>
       <c r="E160" s="4">
-        <v>47161</v>
+        <v>47439</v>
       </c>
     </row>
     <row r="161" ht="14" customHeight="1">
@@ -3774,16 +3774,16 @@
         <v>164</v>
       </c>
       <c r="B161" s="4">
-        <v>2016</v>
+        <v>2022</v>
       </c>
       <c r="C161" s="4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D161" s="4">
-        <v>757</v>
+        <v>767</v>
       </c>
       <c r="E161" s="4">
-        <v>2806</v>
+        <v>2823</v>
       </c>
     </row>
     <row r="162" ht="14" customHeight="1">
@@ -3791,16 +3791,16 @@
         <v>165</v>
       </c>
       <c r="B162" s="4">
-        <v>188958</v>
+        <v>189561</v>
       </c>
       <c r="C162" s="4">
-        <v>8895</v>
+        <v>8930</v>
       </c>
       <c r="D162" s="4">
-        <v>33243</v>
+        <v>33751</v>
       </c>
       <c r="E162" s="4">
-        <v>231096</v>
+        <v>232242</v>
       </c>
     </row>
     <row r="163" ht="14" customHeight="1">
@@ -3825,16 +3825,16 @@
         <v>167</v>
       </c>
       <c r="B164" s="4">
-        <v>20442</v>
+        <v>20566</v>
       </c>
       <c r="C164" s="4">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="D164" s="4">
-        <v>2580</v>
+        <v>2621</v>
       </c>
       <c r="E164" s="4">
-        <v>23933</v>
+        <v>24101</v>
       </c>
     </row>
     <row r="165" ht="14" customHeight="1">
@@ -3842,16 +3842,16 @@
         <v>168</v>
       </c>
       <c r="B165" s="4">
-        <v>1839</v>
+        <v>1846</v>
       </c>
       <c r="C165" s="4">
         <v>19</v>
       </c>
       <c r="D165" s="4">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E165" s="4">
-        <v>2042</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="166" ht="14" customHeight="1">
@@ -3859,16 +3859,16 @@
         <v>169</v>
       </c>
       <c r="B166" s="4">
-        <v>36844</v>
+        <v>36995</v>
       </c>
       <c r="C166" s="4">
-        <v>4651</v>
+        <v>4688</v>
       </c>
       <c r="D166" s="4">
-        <v>25218</v>
+        <v>25313</v>
       </c>
       <c r="E166" s="4">
-        <v>66713</v>
+        <v>66996</v>
       </c>
     </row>
     <row r="167" ht="14" customHeight="1">
@@ -3876,16 +3876,16 @@
         <v>170</v>
       </c>
       <c r="B167" s="4">
-        <v>12595</v>
+        <v>12673</v>
       </c>
       <c r="C167" s="4">
-        <v>746</v>
+        <v>755</v>
       </c>
       <c r="D167" s="4">
-        <v>3545</v>
+        <v>3574</v>
       </c>
       <c r="E167" s="4">
-        <v>16886</v>
+        <v>17002</v>
       </c>
     </row>
     <row r="168" ht="14" customHeight="1">
@@ -3893,16 +3893,16 @@
         <v>171</v>
       </c>
       <c r="B168" s="4">
-        <v>3486</v>
+        <v>3489</v>
       </c>
       <c r="C168" s="4">
         <v>76</v>
       </c>
       <c r="D168" s="4">
-        <v>735</v>
+        <v>752</v>
       </c>
       <c r="E168" s="4">
-        <v>4297</v>
+        <v>4317</v>
       </c>
     </row>
     <row r="169" ht="14" customHeight="1">
@@ -3910,7 +3910,7 @@
         <v>172</v>
       </c>
       <c r="B169" s="4">
-        <v>3681</v>
+        <v>3688</v>
       </c>
       <c r="C169" s="4">
         <v>47</v>
@@ -3919,7 +3919,7 @@
         <v>1897</v>
       </c>
       <c r="E169" s="4">
-        <v>5625</v>
+        <v>5632</v>
       </c>
     </row>
     <row r="170" ht="14" customHeight="1">
@@ -3927,16 +3927,16 @@
         <v>173</v>
       </c>
       <c r="B170" s="4">
-        <v>8454</v>
+        <v>8494</v>
       </c>
       <c r="C170" s="4">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D170" s="4">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="E170" s="4">
-        <v>10831</v>
+        <v>10873</v>
       </c>
     </row>
     <row r="171" ht="14" customHeight="1">
@@ -3944,16 +3944,16 @@
         <v>174</v>
       </c>
       <c r="B171" s="4">
-        <v>264364</v>
+        <v>265886</v>
       </c>
       <c r="C171" s="4">
-        <v>13660</v>
+        <v>13705</v>
       </c>
       <c r="D171" s="4">
-        <v>18495</v>
+        <v>19183</v>
       </c>
       <c r="E171" s="4">
-        <v>296519</v>
+        <v>298774</v>
       </c>
     </row>
     <row r="172" ht="14" customHeight="1">
@@ -3961,16 +3961,16 @@
         <v>175</v>
       </c>
       <c r="B172" s="4">
-        <v>6609</v>
+        <v>6628</v>
       </c>
       <c r="C172" s="4">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D172" s="4">
-        <v>1201</v>
+        <v>1205</v>
       </c>
       <c r="E172" s="4">
-        <v>7931</v>
+        <v>7955</v>
       </c>
     </row>
     <row r="173" ht="14" customHeight="1">
@@ -3978,16 +3978,16 @@
         <v>176</v>
       </c>
       <c r="B173" s="4">
-        <v>4455</v>
+        <v>4462</v>
       </c>
       <c r="C173" s="4">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="D173" s="4">
-        <v>2339</v>
+        <v>2345</v>
       </c>
       <c r="E173" s="4">
-        <v>7381</v>
+        <v>7397</v>
       </c>
     </row>
     <row r="174" ht="14" customHeight="1">
@@ -4001,10 +4001,10 @@
         <v>6</v>
       </c>
       <c r="D174" s="4">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E174" s="4">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="175" ht="14" customHeight="1">
@@ -4012,16 +4012,16 @@
         <v>178</v>
       </c>
       <c r="B175" s="4">
-        <v>32262</v>
+        <v>32423</v>
       </c>
       <c r="C175" s="4">
-        <v>956</v>
+        <v>960</v>
       </c>
       <c r="D175" s="4">
-        <v>2986</v>
+        <v>3130</v>
       </c>
       <c r="E175" s="4">
-        <v>36204</v>
+        <v>36513</v>
       </c>
     </row>
     <row r="176" ht="14" customHeight="1">
@@ -4029,16 +4029,16 @@
         <v>179</v>
       </c>
       <c r="B176" s="4">
-        <v>21133</v>
+        <v>21307</v>
       </c>
       <c r="C176" s="4">
-        <v>1395</v>
+        <v>1404</v>
       </c>
       <c r="D176" s="4">
-        <v>5717</v>
+        <v>5751</v>
       </c>
       <c r="E176" s="4">
-        <v>28245</v>
+        <v>28462</v>
       </c>
     </row>
     <row r="177" ht="14" customHeight="1">
@@ -4046,16 +4046,16 @@
         <v>180</v>
       </c>
       <c r="B177" s="4">
-        <v>2658</v>
+        <v>2678</v>
       </c>
       <c r="C177" s="4">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="D177" s="4">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="E177" s="4">
-        <v>4439</v>
+        <v>4462</v>
       </c>
     </row>
     <row r="178" ht="14" customHeight="1">
@@ -4063,16 +4063,16 @@
         <v>181</v>
       </c>
       <c r="B178" s="4">
-        <v>5833</v>
+        <v>5851</v>
       </c>
       <c r="C178" s="4">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D178" s="4">
-        <v>2139</v>
+        <v>2141</v>
       </c>
       <c r="E178" s="4">
-        <v>8091</v>
+        <v>8112</v>
       </c>
     </row>
     <row r="179" ht="14" customHeight="1">
@@ -4080,16 +4080,16 @@
         <v>182</v>
       </c>
       <c r="B179" s="4">
-        <v>172466</v>
+        <v>173333</v>
       </c>
       <c r="C179" s="4">
-        <v>34250</v>
+        <v>34413</v>
       </c>
       <c r="D179" s="4">
-        <v>26274</v>
+        <v>26504</v>
       </c>
       <c r="E179" s="4">
-        <v>232990</v>
+        <v>234250</v>
       </c>
     </row>
     <row r="180" ht="14" customHeight="1">
@@ -4097,16 +4097,16 @@
         <v>183</v>
       </c>
       <c r="B180" s="4">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C180" s="4">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D180" s="4">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="E180" s="4">
-        <v>683</v>
+        <v>692</v>
       </c>
     </row>
     <row r="181" ht="14" customHeight="1">
@@ -4114,16 +4114,16 @@
         <v>184</v>
       </c>
       <c r="B181" s="4">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C181" s="4">
         <v>91</v>
       </c>
       <c r="D181" s="4">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E181" s="4">
-        <v>758</v>
+        <v>761</v>
       </c>
     </row>
     <row r="182" ht="14" customHeight="1">
@@ -4131,16 +4131,16 @@
         <v>185</v>
       </c>
       <c r="B182" s="4">
-        <v>20992</v>
+        <v>21107</v>
       </c>
       <c r="C182" s="4">
-        <v>4813</v>
+        <v>4817</v>
       </c>
       <c r="D182" s="4">
-        <v>5187</v>
+        <v>5195</v>
       </c>
       <c r="E182" s="4">
-        <v>30992</v>
+        <v>31119</v>
       </c>
     </row>
     <row r="183" ht="14" customHeight="1">
@@ -4148,16 +4148,16 @@
         <v>186</v>
       </c>
       <c r="B183" s="4">
-        <v>10695</v>
+        <v>10755</v>
       </c>
       <c r="C183" s="4">
-        <v>823</v>
+        <v>828</v>
       </c>
       <c r="D183" s="4">
-        <v>2800</v>
+        <v>2815</v>
       </c>
       <c r="E183" s="4">
-        <v>14318</v>
+        <v>14398</v>
       </c>
     </row>
     <row r="184" ht="14" customHeight="1">
@@ -4165,16 +4165,16 @@
         <v>187</v>
       </c>
       <c r="B184" s="4">
-        <v>6971</v>
+        <v>6996</v>
       </c>
       <c r="C184" s="4">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="D184" s="4">
-        <v>1293</v>
+        <v>1297</v>
       </c>
       <c r="E184" s="4">
-        <v>9095</v>
+        <v>9128</v>
       </c>
     </row>
     <row r="185" ht="14" customHeight="1">
@@ -4182,16 +4182,16 @@
         <v>188</v>
       </c>
       <c r="B185" s="4">
-        <v>51629</v>
+        <v>51920</v>
       </c>
       <c r="C185" s="4">
-        <v>5342</v>
+        <v>5359</v>
       </c>
       <c r="D185" s="4">
-        <v>10546</v>
+        <v>10576</v>
       </c>
       <c r="E185" s="4">
-        <v>67517</v>
+        <v>67855</v>
       </c>
     </row>
     <row r="186" ht="14" customHeight="1">
@@ -4199,16 +4199,16 @@
         <v>189</v>
       </c>
       <c r="B186" s="4">
-        <v>1604</v>
+        <v>1610</v>
       </c>
       <c r="C186" s="4">
         <v>60</v>
       </c>
       <c r="D186" s="4">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="E186" s="4">
-        <v>2367</v>
+        <v>2375</v>
       </c>
     </row>
     <row r="187" ht="14" customHeight="1">
@@ -4216,16 +4216,16 @@
         <v>190</v>
       </c>
       <c r="B187" s="4">
-        <v>8043</v>
+        <v>8115</v>
       </c>
       <c r="C187" s="4">
         <v>80</v>
       </c>
       <c r="D187" s="4">
-        <v>525</v>
+        <v>541</v>
       </c>
       <c r="E187" s="4">
-        <v>8648</v>
+        <v>8736</v>
       </c>
     </row>
     <row r="188" ht="14" customHeight="1">
@@ -4233,16 +4233,16 @@
         <v>191</v>
       </c>
       <c r="B188" s="4">
-        <v>22025</v>
+        <v>22107</v>
       </c>
       <c r="C188" s="4">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="D188" s="4">
-        <v>2772</v>
+        <v>2788</v>
       </c>
       <c r="E188" s="4">
-        <v>25801</v>
+        <v>25901</v>
       </c>
     </row>
     <row r="189" ht="14" customHeight="1">
@@ -4250,16 +4250,16 @@
         <v>192</v>
       </c>
       <c r="B189" s="4">
-        <v>60209</v>
+        <v>60296</v>
       </c>
       <c r="C189" s="4">
-        <v>2574</v>
+        <v>2604</v>
       </c>
       <c r="D189" s="4">
-        <v>6289</v>
+        <v>6506</v>
       </c>
       <c r="E189" s="4">
-        <v>69072</v>
+        <v>69406</v>
       </c>
     </row>
     <row r="190" ht="14" customHeight="1">
@@ -4267,16 +4267,16 @@
         <v>193</v>
       </c>
       <c r="B190" s="4">
-        <v>6773</v>
+        <v>6784</v>
       </c>
       <c r="C190" s="4">
         <v>33</v>
       </c>
       <c r="D190" s="4">
-        <v>395</v>
+        <v>412</v>
       </c>
       <c r="E190" s="4">
-        <v>7201</v>
+        <v>7229</v>
       </c>
     </row>
     <row r="191" ht="14" customHeight="1">
@@ -4284,16 +4284,16 @@
         <v>194</v>
       </c>
       <c r="B191" s="4">
-        <v>2171</v>
+        <v>2194</v>
       </c>
       <c r="C191" s="4">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="D191" s="4">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E191" s="4">
-        <v>2872</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="192" ht="14" customHeight="1">
@@ -4301,16 +4301,16 @@
         <v>195</v>
       </c>
       <c r="B192" s="4">
-        <v>37768</v>
+        <v>37855</v>
       </c>
       <c r="C192" s="4">
-        <v>4790</v>
+        <v>4837</v>
       </c>
       <c r="D192" s="4">
-        <v>6292</v>
+        <v>6441</v>
       </c>
       <c r="E192" s="4">
-        <v>48850</v>
+        <v>49133</v>
       </c>
     </row>
     <row r="193" ht="14" customHeight="1">
@@ -4324,10 +4324,10 @@
         <v>24</v>
       </c>
       <c r="D193" s="4">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E193" s="4">
-        <v>1141</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="194" ht="14" customHeight="1">
@@ -4335,16 +4335,16 @@
         <v>197</v>
       </c>
       <c r="B194" s="4">
-        <v>1466</v>
+        <v>1504</v>
       </c>
       <c r="C194" s="4">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D194" s="4">
-        <v>308</v>
+        <v>337</v>
       </c>
       <c r="E194" s="4">
-        <v>1832</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="195" ht="14" customHeight="1">
@@ -4352,7 +4352,7 @@
         <v>198</v>
       </c>
       <c r="B195" s="4">
-        <v>4749</v>
+        <v>4756</v>
       </c>
       <c r="C195" s="4">
         <v>437</v>
@@ -4361,7 +4361,7 @@
         <v>820</v>
       </c>
       <c r="E195" s="4">
-        <v>6006</v>
+        <v>6013</v>
       </c>
     </row>
     <row r="196" ht="14" customHeight="1">
@@ -4369,16 +4369,16 @@
         <v>199</v>
       </c>
       <c r="B196" s="4">
-        <v>4254</v>
+        <v>4264</v>
       </c>
       <c r="C196" s="4">
         <v>105</v>
       </c>
       <c r="D196" s="4">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E196" s="4">
-        <v>4533</v>
+        <v>4545</v>
       </c>
     </row>
     <row r="197" ht="14" customHeight="1">
@@ -4386,16 +4386,16 @@
         <v>200</v>
       </c>
       <c r="B197" s="4">
-        <v>3307</v>
+        <v>3318</v>
       </c>
       <c r="C197" s="4">
         <v>314</v>
       </c>
       <c r="D197" s="4">
-        <v>1502</v>
+        <v>1506</v>
       </c>
       <c r="E197" s="4">
-        <v>5123</v>
+        <v>5138</v>
       </c>
     </row>
     <row r="198" ht="14" customHeight="1">
@@ -4420,16 +4420,16 @@
         <v>202</v>
       </c>
       <c r="B199" s="4">
-        <v>9126</v>
+        <v>9180</v>
       </c>
       <c r="C199" s="4">
         <v>218</v>
       </c>
       <c r="D199" s="4">
-        <v>3783</v>
+        <v>3785</v>
       </c>
       <c r="E199" s="4">
-        <v>13127</v>
+        <v>13183</v>
       </c>
     </row>
     <row r="200" ht="14" customHeight="1">
@@ -4437,16 +4437,16 @@
         <v>203</v>
       </c>
       <c r="B200" s="4">
-        <v>54880</v>
+        <v>55284</v>
       </c>
       <c r="C200" s="4">
-        <v>4422</v>
+        <v>4449</v>
       </c>
       <c r="D200" s="4">
-        <v>3040</v>
+        <v>3094</v>
       </c>
       <c r="E200" s="4">
-        <v>62342</v>
+        <v>62827</v>
       </c>
     </row>
     <row r="201" ht="14" customHeight="1">
@@ -4454,16 +4454,16 @@
         <v>204</v>
       </c>
       <c r="B201" s="4">
-        <v>4866</v>
+        <v>4900</v>
       </c>
       <c r="C201" s="4">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D201" s="4">
-        <v>1830</v>
+        <v>1841</v>
       </c>
       <c r="E201" s="4">
-        <v>6824</v>
+        <v>6871</v>
       </c>
     </row>
     <row r="202" ht="14" customHeight="1">
@@ -4471,16 +4471,16 @@
         <v>205</v>
       </c>
       <c r="B202" s="4">
-        <v>14749</v>
+        <v>14806</v>
       </c>
       <c r="C202" s="4">
-        <v>1688</v>
+        <v>1699</v>
       </c>
       <c r="D202" s="4">
-        <v>1293</v>
+        <v>1315</v>
       </c>
       <c r="E202" s="4">
-        <v>17730</v>
+        <v>17820</v>
       </c>
     </row>
     <row r="203" ht="14" customHeight="1">
@@ -4488,16 +4488,16 @@
         <v>206</v>
       </c>
       <c r="B203" s="4">
-        <v>4515</v>
+        <v>4535</v>
       </c>
       <c r="C203" s="4">
         <v>349</v>
       </c>
       <c r="D203" s="4">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="E203" s="4">
-        <v>6025</v>
+        <v>6047</v>
       </c>
     </row>
     <row r="204" ht="14" customHeight="1">
@@ -4505,16 +4505,16 @@
         <v>207</v>
       </c>
       <c r="B204" s="4">
-        <v>4305</v>
+        <v>4331</v>
       </c>
       <c r="C204" s="4">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D204" s="4">
         <v>1132</v>
       </c>
       <c r="E204" s="4">
-        <v>5489</v>
+        <v>5516</v>
       </c>
     </row>
     <row r="205" ht="14" customHeight="1">
@@ -4522,16 +4522,16 @@
         <v>208</v>
       </c>
       <c r="B205" s="4">
-        <v>11622</v>
+        <v>11667</v>
       </c>
       <c r="C205" s="4">
-        <v>1277</v>
+        <v>1282</v>
       </c>
       <c r="D205" s="4">
-        <v>1396</v>
+        <v>1410</v>
       </c>
       <c r="E205" s="4">
-        <v>14295</v>
+        <v>14359</v>
       </c>
     </row>
     <row r="206" ht="14" customHeight="1">
@@ -4539,16 +4539,16 @@
         <v>209</v>
       </c>
       <c r="B206" s="4">
-        <v>22678</v>
+        <v>22878</v>
       </c>
       <c r="C206" s="4">
-        <v>6259</v>
+        <v>6288</v>
       </c>
       <c r="D206" s="4">
-        <v>9067</v>
+        <v>9130</v>
       </c>
       <c r="E206" s="4">
-        <v>38004</v>
+        <v>38296</v>
       </c>
     </row>
     <row r="207" ht="14" customHeight="1">
@@ -4556,16 +4556,16 @@
         <v>210</v>
       </c>
       <c r="B207" s="4">
-        <v>2147</v>
+        <v>2153</v>
       </c>
       <c r="C207" s="4">
         <v>73</v>
       </c>
       <c r="D207" s="4">
-        <v>1276</v>
+        <v>1278</v>
       </c>
       <c r="E207" s="4">
-        <v>3496</v>
+        <v>3504</v>
       </c>
     </row>
     <row r="208" ht="14" customHeight="1">
@@ -4573,16 +4573,16 @@
         <v>211</v>
       </c>
       <c r="B208" s="4">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C208" s="4">
         <v>12</v>
       </c>
       <c r="D208" s="4">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="E208" s="4">
-        <v>1060</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="209" ht="14" customHeight="1">
@@ -4590,16 +4590,16 @@
         <v>212</v>
       </c>
       <c r="B209" s="4">
-        <v>14955</v>
+        <v>14966</v>
       </c>
       <c r="C209" s="4">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D209" s="4">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="E209" s="4">
-        <v>15533</v>
+        <v>15553</v>
       </c>
     </row>
     <row r="210" ht="14" customHeight="1">
@@ -4607,16 +4607,16 @@
         <v>213</v>
       </c>
       <c r="B210" s="4">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C210" s="4">
         <v>64</v>
       </c>
       <c r="D210" s="4">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E210" s="4">
-        <v>951</v>
+        <v>954</v>
       </c>
     </row>
     <row r="211" ht="14" customHeight="1">
@@ -4624,16 +4624,16 @@
         <v>214</v>
       </c>
       <c r="B211" s="4">
-        <v>9652</v>
+        <v>9686</v>
       </c>
       <c r="C211" s="4">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="D211" s="4">
-        <v>1765</v>
+        <v>1773</v>
       </c>
       <c r="E211" s="4">
-        <v>11740</v>
+        <v>11788</v>
       </c>
     </row>
     <row r="212" ht="14" customHeight="1">
@@ -4641,16 +4641,16 @@
         <v>215</v>
       </c>
       <c r="B212" s="4">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C212" s="4">
         <v>12</v>
       </c>
       <c r="D212" s="4">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E212" s="4">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="213" ht="14" customHeight="1">
@@ -4658,16 +4658,16 @@
         <v>216</v>
       </c>
       <c r="B213" s="4">
-        <v>146234</v>
+        <v>146759</v>
       </c>
       <c r="C213" s="4">
-        <v>8455</v>
+        <v>8466</v>
       </c>
       <c r="D213" s="4">
-        <v>12684</v>
+        <v>12738</v>
       </c>
       <c r="E213" s="4">
-        <v>167373</v>
+        <v>167963</v>
       </c>
     </row>
     <row r="214" ht="14" customHeight="1">
@@ -4675,16 +4675,16 @@
         <v>217</v>
       </c>
       <c r="B214" s="4">
-        <v>3469</v>
+        <v>3477</v>
       </c>
       <c r="C214" s="4">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D214" s="4">
-        <v>3249</v>
+        <v>3250</v>
       </c>
       <c r="E214" s="4">
-        <v>7038</v>
+        <v>7049</v>
       </c>
     </row>
     <row r="215" ht="14" customHeight="1">
@@ -4692,16 +4692,16 @@
         <v>218</v>
       </c>
       <c r="B215" s="4">
-        <v>36803</v>
+        <v>36970</v>
       </c>
       <c r="C215" s="4">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="D215" s="4">
-        <v>2454</v>
+        <v>2768</v>
       </c>
       <c r="E215" s="4">
-        <v>39709</v>
+        <v>40193</v>
       </c>
     </row>
     <row r="216" ht="14" customHeight="1">
@@ -4709,16 +4709,16 @@
         <v>219</v>
       </c>
       <c r="B216" s="4">
-        <v>1997</v>
+        <v>1999</v>
       </c>
       <c r="C216" s="4">
         <v>127</v>
       </c>
       <c r="D216" s="4">
-        <v>1205</v>
+        <v>1207</v>
       </c>
       <c r="E216" s="4">
-        <v>3329</v>
+        <v>3333</v>
       </c>
     </row>
     <row r="217" ht="14" customHeight="1">
@@ -4726,7 +4726,7 @@
         <v>220</v>
       </c>
       <c r="B217" s="4">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C217" s="4">
         <v>6</v>
@@ -4735,7 +4735,7 @@
         <v>386</v>
       </c>
       <c r="E217" s="4">
-        <v>794</v>
+        <v>796</v>
       </c>
     </row>
     <row r="218" ht="14" customHeight="1">
@@ -4743,16 +4743,16 @@
         <v>221</v>
       </c>
       <c r="B218" s="4">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C218" s="4">
         <v>4</v>
       </c>
       <c r="D218" s="4">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E218" s="4">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="219" ht="14" customHeight="1">
@@ -4760,16 +4760,16 @@
         <v>222</v>
       </c>
       <c r="B219" s="4">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="C219" s="4">
         <v>24</v>
       </c>
       <c r="D219" s="4">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="E219" s="4">
-        <v>1640</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="220" ht="14" customHeight="1">
@@ -4777,7 +4777,7 @@
         <v>223</v>
       </c>
       <c r="B220" s="4">
-        <v>2930</v>
+        <v>2940</v>
       </c>
       <c r="C220" s="4">
         <v>111</v>
@@ -4786,7 +4786,7 @@
         <v>618</v>
       </c>
       <c r="E220" s="4">
-        <v>3659</v>
+        <v>3669</v>
       </c>
     </row>
     <row r="221" ht="14" customHeight="1">
@@ -4794,16 +4794,16 @@
         <v>224</v>
       </c>
       <c r="B221" s="4">
-        <v>1190697</v>
+        <v>1198622</v>
       </c>
       <c r="C221" s="4">
-        <v>80310</v>
+        <v>80581</v>
       </c>
       <c r="D221" s="4">
-        <v>103684</v>
+        <v>104714</v>
       </c>
       <c r="E221" s="4">
-        <v>1374691</v>
+        <v>1383917</v>
       </c>
     </row>
     <row r="222" ht="14" customHeight="1">
@@ -4811,16 +4811,16 @@
         <v>225</v>
       </c>
       <c r="B222" s="4">
-        <v>67646</v>
+        <v>67834</v>
       </c>
       <c r="C222" s="4">
-        <v>2858</v>
+        <v>2882</v>
       </c>
       <c r="D222" s="4">
-        <v>25869</v>
+        <v>26085</v>
       </c>
       <c r="E222" s="4">
-        <v>96373</v>
+        <v>96801</v>
       </c>
     </row>
     <row r="223" ht="14" customHeight="1">
@@ -4828,16 +4828,16 @@
         <v>226</v>
       </c>
       <c r="B223" s="4">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C223" s="4">
         <v>3</v>
       </c>
       <c r="D223" s="4">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E223" s="4">
-        <v>419</v>
+        <v>423</v>
       </c>
     </row>
     <row r="224" ht="14" customHeight="1">
@@ -4845,16 +4845,16 @@
         <v>227</v>
       </c>
       <c r="B224" s="4">
-        <v>2643</v>
+        <v>2647</v>
       </c>
       <c r="C224" s="4">
         <v>95</v>
       </c>
       <c r="D224" s="4">
-        <v>883</v>
+        <v>887</v>
       </c>
       <c r="E224" s="4">
-        <v>3621</v>
+        <v>3629</v>
       </c>
     </row>
     <row r="225" ht="14" customHeight="1">
@@ -4868,10 +4868,10 @@
         <v>19</v>
       </c>
       <c r="D225" s="4">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E225" s="4">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="226" ht="14" customHeight="1">
@@ -4879,16 +4879,16 @@
         <v>229</v>
       </c>
       <c r="B226" s="4">
-        <v>18540</v>
+        <v>18563</v>
       </c>
       <c r="C226" s="4">
-        <v>925</v>
+        <v>934</v>
       </c>
       <c r="D226" s="4">
-        <v>2338</v>
+        <v>2339</v>
       </c>
       <c r="E226" s="4">
-        <v>21803</v>
+        <v>21836</v>
       </c>
     </row>
     <row r="227" ht="14" customHeight="1">
@@ -4896,16 +4896,16 @@
         <v>230</v>
       </c>
       <c r="B227" s="4">
-        <v>62135</v>
+        <v>62465</v>
       </c>
       <c r="C227" s="4">
-        <v>1303</v>
+        <v>1311</v>
       </c>
       <c r="D227" s="4">
-        <v>29926</v>
+        <v>30151</v>
       </c>
       <c r="E227" s="4">
-        <v>93364</v>
+        <v>93927</v>
       </c>
     </row>
     <row r="228" ht="14" customHeight="1">
@@ -4913,16 +4913,16 @@
         <v>231</v>
       </c>
       <c r="B228" s="4">
-        <v>726443</v>
+        <v>733703</v>
       </c>
       <c r="C228" s="4">
-        <v>30450</v>
+        <v>30524</v>
       </c>
       <c r="D228" s="4">
-        <v>68023</v>
+        <v>70242</v>
       </c>
       <c r="E228" s="4">
-        <v>824916</v>
+        <v>834469</v>
       </c>
     </row>
     <row r="229" ht="14" customHeight="1">
@@ -4930,16 +4930,16 @@
         <v>232</v>
       </c>
       <c r="B229" s="4">
-        <v>7779</v>
+        <v>7810</v>
       </c>
       <c r="C229" s="4">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D229" s="4">
-        <v>1557</v>
+        <v>1560</v>
       </c>
       <c r="E229" s="4">
-        <v>9534</v>
+        <v>9569</v>
       </c>
     </row>
     <row r="230" ht="14" customHeight="1">
@@ -4947,16 +4947,16 @@
         <v>233</v>
       </c>
       <c r="B230" s="4">
-        <v>7128</v>
+        <v>7152</v>
       </c>
       <c r="C230" s="4">
         <v>812</v>
       </c>
       <c r="D230" s="4">
-        <v>3037</v>
+        <v>3054</v>
       </c>
       <c r="E230" s="4">
-        <v>10977</v>
+        <v>11018</v>
       </c>
     </row>
     <row r="231" ht="14" customHeight="1">
@@ -4964,16 +4964,16 @@
         <v>234</v>
       </c>
       <c r="B231" s="4">
-        <v>8289</v>
+        <v>8326</v>
       </c>
       <c r="C231" s="4">
-        <v>1644</v>
+        <v>1654</v>
       </c>
       <c r="D231" s="4">
-        <v>2385</v>
+        <v>2414</v>
       </c>
       <c r="E231" s="4">
-        <v>12318</v>
+        <v>12394</v>
       </c>
     </row>
     <row r="232" ht="14" customHeight="1">
@@ -4984,13 +4984,13 @@
         <v>699</v>
       </c>
       <c r="C232" s="4">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D232" s="4">
         <v>1136</v>
       </c>
       <c r="E232" s="4">
-        <v>1896</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="233" ht="14" customHeight="1">
@@ -4998,16 +4998,16 @@
         <v>236</v>
       </c>
       <c r="B233" s="4">
-        <v>18381</v>
+        <v>18470</v>
       </c>
       <c r="C233" s="4">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="D233" s="4">
-        <v>586</v>
+        <v>630</v>
       </c>
       <c r="E233" s="4">
-        <v>19276</v>
+        <v>19415</v>
       </c>
     </row>
     <row r="234" ht="14" customHeight="1">
@@ -5015,16 +5015,16 @@
         <v>237</v>
       </c>
       <c r="B234" s="4">
-        <v>33493</v>
+        <v>33624</v>
       </c>
       <c r="C234" s="4">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="D234" s="4">
-        <v>3700</v>
+        <v>3887</v>
       </c>
       <c r="E234" s="4">
-        <v>38225</v>
+        <v>38544</v>
       </c>
     </row>
     <row r="235" ht="14" customHeight="1">
@@ -5032,16 +5032,16 @@
         <v>238</v>
       </c>
       <c r="B235" s="4">
-        <v>14415</v>
+        <v>14498</v>
       </c>
       <c r="C235" s="4">
-        <v>1588</v>
+        <v>1598</v>
       </c>
       <c r="D235" s="4">
-        <v>3788</v>
+        <v>3799</v>
       </c>
       <c r="E235" s="4">
-        <v>19791</v>
+        <v>19895</v>
       </c>
     </row>
     <row r="236" ht="14" customHeight="1">
@@ -5049,16 +5049,16 @@
         <v>239</v>
       </c>
       <c r="B236" s="4">
-        <v>31097</v>
+        <v>31320</v>
       </c>
       <c r="C236" s="4">
-        <v>1229</v>
+        <v>1243</v>
       </c>
       <c r="D236" s="4">
-        <v>7997</v>
+        <v>8087</v>
       </c>
       <c r="E236" s="4">
-        <v>40323</v>
+        <v>40650</v>
       </c>
     </row>
     <row r="237" ht="14" customHeight="1">
@@ -5066,16 +5066,16 @@
         <v>240</v>
       </c>
       <c r="B237" s="4">
-        <v>75337</v>
+        <v>75544</v>
       </c>
       <c r="C237" s="4">
-        <v>984</v>
+        <v>990</v>
       </c>
       <c r="D237" s="4">
-        <v>4331</v>
+        <v>4375</v>
       </c>
       <c r="E237" s="4">
-        <v>80652</v>
+        <v>80909</v>
       </c>
     </row>
     <row r="238" ht="14" customHeight="1">
@@ -5083,16 +5083,16 @@
         <v>241</v>
       </c>
       <c r="B238" s="4">
-        <v>22778</v>
+        <v>22991</v>
       </c>
       <c r="C238" s="4">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="D238" s="4">
-        <v>1111</v>
+        <v>1128</v>
       </c>
       <c r="E238" s="4">
-        <v>24505</v>
+        <v>24740</v>
       </c>
     </row>
     <row r="239" ht="14" customHeight="1">
@@ -5100,16 +5100,16 @@
         <v>242</v>
       </c>
       <c r="B239" s="4">
-        <v>3821</v>
+        <v>3832</v>
       </c>
       <c r="C239" s="4">
         <v>107</v>
       </c>
       <c r="D239" s="4">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E239" s="4">
-        <v>4138</v>
+        <v>4151</v>
       </c>
     </row>
     <row r="240" ht="14" customHeight="1">
@@ -5117,16 +5117,16 @@
         <v>243</v>
       </c>
       <c r="B240" s="4">
-        <v>28284</v>
+        <v>28517</v>
       </c>
       <c r="C240" s="4">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D240" s="4">
-        <v>2381</v>
+        <v>2414</v>
       </c>
       <c r="E240" s="4">
-        <v>31131</v>
+        <v>31399</v>
       </c>
     </row>
     <row r="241" ht="14" customHeight="1">
@@ -5134,16 +5134,16 @@
         <v>244</v>
       </c>
       <c r="B241" s="4">
-        <v>265636</v>
+        <v>267163</v>
       </c>
       <c r="C241" s="4">
-        <v>3962</v>
+        <v>3977</v>
       </c>
       <c r="D241" s="4">
-        <v>23955</v>
+        <v>25972</v>
       </c>
       <c r="E241" s="4">
-        <v>293553</v>
+        <v>297112</v>
       </c>
     </row>
     <row r="242" ht="14" customHeight="1">
@@ -5151,16 +5151,16 @@
         <v>245</v>
       </c>
       <c r="B242" s="4">
-        <v>24770</v>
+        <v>24926</v>
       </c>
       <c r="C242" s="4">
         <v>657</v>
       </c>
       <c r="D242" s="4">
-        <v>1408</v>
+        <v>1451</v>
       </c>
       <c r="E242" s="4">
-        <v>26835</v>
+        <v>27034</v>
       </c>
     </row>
     <row r="243" ht="14" customHeight="1">
@@ -5168,7 +5168,7 @@
         <v>246</v>
       </c>
       <c r="B243" s="4">
-        <v>1443</v>
+        <v>1449</v>
       </c>
       <c r="C243" s="4">
         <v>81</v>
@@ -5177,7 +5177,7 @@
         <v>1559</v>
       </c>
       <c r="E243" s="4">
-        <v>3083</v>
+        <v>3089</v>
       </c>
     </row>
     <row r="244" ht="14" customHeight="1">
@@ -5185,16 +5185,16 @@
         <v>247</v>
       </c>
       <c r="B244" s="4">
-        <v>91208</v>
+        <v>91388</v>
       </c>
       <c r="C244" s="4">
-        <v>1516</v>
+        <v>1527</v>
       </c>
       <c r="D244" s="4">
-        <v>12834</v>
+        <v>12872</v>
       </c>
       <c r="E244" s="4">
-        <v>105558</v>
+        <v>105787</v>
       </c>
     </row>
     <row r="245" ht="14" customHeight="1">
@@ -5202,16 +5202,16 @@
         <v>248</v>
       </c>
       <c r="B245" s="4">
-        <v>9643</v>
+        <v>9664</v>
       </c>
       <c r="C245" s="4">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D245" s="4">
         <v>2855</v>
       </c>
       <c r="E245" s="4">
-        <v>12623</v>
+        <v>12645</v>
       </c>
     </row>
     <row r="246" ht="14" customHeight="1">
@@ -5219,16 +5219,16 @@
         <v>249</v>
       </c>
       <c r="B246" s="4">
-        <v>17086</v>
+        <v>17243</v>
       </c>
       <c r="C246" s="4">
         <v>149</v>
       </c>
       <c r="D246" s="4">
-        <v>607</v>
+        <v>628</v>
       </c>
       <c r="E246" s="4">
-        <v>17842</v>
+        <v>18020</v>
       </c>
     </row>
     <row r="247" ht="14" customHeight="1">
@@ -5236,16 +5236,16 @@
         <v>250</v>
       </c>
       <c r="B247" s="4">
-        <v>304967</v>
+        <v>307953</v>
       </c>
       <c r="C247" s="4">
-        <v>12150</v>
+        <v>12192</v>
       </c>
       <c r="D247" s="4">
-        <v>26720</v>
+        <v>27478</v>
       </c>
       <c r="E247" s="4">
-        <v>343837</v>
+        <v>347623</v>
       </c>
     </row>
     <row r="248" ht="14" customHeight="1">
@@ -5253,16 +5253,16 @@
         <v>251</v>
       </c>
       <c r="B248" s="4">
-        <v>22501</v>
+        <v>22635</v>
       </c>
       <c r="C248" s="4">
-        <v>795</v>
+        <v>800</v>
       </c>
       <c r="D248" s="4">
-        <v>4309</v>
+        <v>4334</v>
       </c>
       <c r="E248" s="4">
-        <v>27605</v>
+        <v>27769</v>
       </c>
     </row>
     <row r="249" ht="14" customHeight="1">
@@ -5270,16 +5270,16 @@
         <v>252</v>
       </c>
       <c r="B249" s="4">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="C249" s="4">
         <v>37</v>
       </c>
       <c r="D249" s="4">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E249" s="4">
-        <v>1006</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="250" ht="14" customHeight="1">
@@ -5287,16 +5287,16 @@
         <v>253</v>
       </c>
       <c r="B250" s="4">
-        <v>34995</v>
+        <v>35154</v>
       </c>
       <c r="C250" s="4">
-        <v>2794</v>
+        <v>2805</v>
       </c>
       <c r="D250" s="4">
-        <v>3425</v>
+        <v>3436</v>
       </c>
       <c r="E250" s="4">
-        <v>41214</v>
+        <v>41395</v>
       </c>
     </row>
     <row r="251" ht="14" customHeight="1">
@@ -5304,16 +5304,16 @@
         <v>254</v>
       </c>
       <c r="B251" s="4">
-        <v>13227</v>
+        <v>13325</v>
       </c>
       <c r="C251" s="4">
-        <v>1669</v>
+        <v>1676</v>
       </c>
       <c r="D251" s="4">
-        <v>2238</v>
+        <v>2275</v>
       </c>
       <c r="E251" s="4">
-        <v>17134</v>
+        <v>17276</v>
       </c>
     </row>
     <row r="252" ht="14" customHeight="1">
@@ -5321,16 +5321,16 @@
         <v>255</v>
       </c>
       <c r="B252" s="4">
-        <v>1983</v>
+        <v>1992</v>
       </c>
       <c r="C252" s="4">
         <v>68</v>
       </c>
       <c r="D252" s="4">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E252" s="4">
-        <v>2371</v>
+        <v>2381</v>
       </c>
     </row>
     <row r="253" ht="14" customHeight="1">
@@ -5338,16 +5338,16 @@
         <v>256</v>
       </c>
       <c r="B253" s="4">
-        <v>5476</v>
+        <v>5500</v>
       </c>
       <c r="C253" s="4">
         <v>416</v>
       </c>
       <c r="D253" s="4">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="E253" s="4">
-        <v>6948</v>
+        <v>6973</v>
       </c>
     </row>
     <row r="254" ht="14" customHeight="1">
@@ -5355,16 +5355,16 @@
         <v>257</v>
       </c>
       <c r="B254" s="4">
-        <v>13025</v>
+        <v>13046</v>
       </c>
       <c r="C254" s="4">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D254" s="4">
-        <v>1725</v>
+        <v>1760</v>
       </c>
       <c r="E254" s="4">
-        <v>14857</v>
+        <v>14916</v>
       </c>
     </row>
     <row r="255" ht="14" customHeight="1">
@@ -5372,16 +5372,16 @@
         <v>258</v>
       </c>
       <c r="B255" s="4">
-        <v>7189</v>
+        <v>7241</v>
       </c>
       <c r="C255" s="4">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D255" s="4">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="E255" s="4">
-        <v>7592</v>
+        <v>7652</v>
       </c>
     </row>
     <row r="256" ht="14" customHeight="1">
@@ -5389,16 +5389,16 @@
         <v>259</v>
       </c>
       <c r="B256" s="4">
-        <v>124587</v>
+        <v>124684</v>
       </c>
       <c r="C256" s="4">
-        <v>4212</v>
+        <v>4402</v>
       </c>
       <c r="D256" s="4">
-        <v>2182</v>
+        <v>2271</v>
       </c>
       <c r="E256" s="4">
-        <v>130981</v>
+        <v>131357</v>
       </c>
     </row>
     <row r="257" ht="14" customHeight="1">
@@ -5406,16 +5406,16 @@
         <v>260</v>
       </c>
       <c r="B257" s="4">
-        <v>16629666</v>
+        <v>16738158</v>
       </c>
       <c r="C257" s="4">
-        <v>898817</v>
+        <v>903308</v>
       </c>
       <c r="D257" s="4">
-        <v>1652273</v>
+        <v>1687621</v>
       </c>
       <c r="E257" s="4">
-        <v>19180756</v>
+        <v>19329087</v>
       </c>
     </row>
     <row r="258" ht="12" customHeight="1"/>
